--- a/Scenario pasient-data.xlsx
+++ b/Scenario pasient-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\There\PycharmProjects\ABM---hospital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC67AC35-06BF-4557-A666-2F42838A90CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D7D928-9FE3-4BFB-8F14-54E6FB3B34B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{3D08B538-DB8C-4D4E-BD62-B68A7ED57B49}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3D08B538-DB8C-4D4E-BD62-B68A7ED57B49}"/>
   </bookViews>
   <sheets>
     <sheet name="Prediksjon sykdomstall" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Populasjon</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>AHUS-innlagte-r 1.1 scenario lav</t>
+  </si>
+  <si>
+    <t>Sum pasienter 60 dager</t>
+  </si>
+  <si>
+    <t>Sum smittede</t>
   </si>
 </sst>
 </file>
@@ -471,8 +477,8 @@
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D112"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -1598,6 +1604,12 @@
         <f t="shared" si="7"/>
         <v>25.191632656601275</v>
       </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1643,9 +1655,25 @@
         <f t="shared" si="7"/>
         <v>24.831752190078397</v>
       </c>
+      <c r="M23">
+        <f>SUM(B2:B62)</f>
+        <v>1024682.6789310077</v>
+      </c>
       <c r="N23">
-        <f>SUM(F3:F62)</f>
-        <v>837.05188502609849</v>
+        <f>M23*0.109</f>
+        <v>111690.41200347984</v>
+      </c>
+      <c r="O23">
+        <f>N23*0.0012</f>
+        <v>134.0284944041758</v>
+      </c>
+      <c r="P23">
+        <f>SUM(F2:F62)</f>
+        <v>837.67809002609852</v>
+      </c>
+      <c r="Q23">
+        <f>P23*0.029</f>
+        <v>24.292664610756859</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1692,9 +1720,25 @@
         <f t="shared" si="7"/>
         <v>24.477012873077282</v>
       </c>
+      <c r="M24">
+        <f>SUM(G2:G62)</f>
+        <v>841281.35577732231</v>
+      </c>
       <c r="N24">
-        <f>SUM(K3:K62)</f>
-        <v>916.16173779728115</v>
+        <f>M24*0.109</f>
+        <v>91699.66777972813</v>
+      </c>
+      <c r="O24">
+        <f>N24*0.0012</f>
+        <v>110.03960133567375</v>
+      </c>
+      <c r="P24">
+        <f>SUM(K2:K62)</f>
+        <v>916.99667779728111</v>
+      </c>
+      <c r="Q24">
+        <f>P24*0.029</f>
+        <v>26.592903656121152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -5671,10 +5715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7D5BB8-8042-41E8-B2B8-6F2B060ED930}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E112"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -6289,7 +6333,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43931</v>
       </c>
@@ -6308,7 +6352,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43932</v>
       </c>
@@ -6327,7 +6371,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43933</v>
       </c>
@@ -6346,7 +6390,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43934</v>
       </c>
@@ -6365,7 +6409,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43935</v>
       </c>
@@ -6383,8 +6427,12 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f>_xlfn.DAYS(A38,A2)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43936</v>
       </c>
@@ -6403,7 +6451,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43937</v>
       </c>
@@ -6422,7 +6470,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43938</v>
       </c>
@@ -6441,7 +6489,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43939</v>
       </c>
@@ -6460,7 +6508,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43940</v>
       </c>
@@ -6479,7 +6527,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43941</v>
       </c>
@@ -6498,7 +6546,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43942</v>
       </c>
@@ -6517,7 +6565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43943</v>
       </c>
@@ -6536,7 +6584,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43944</v>
       </c>
@@ -6555,7 +6603,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43945</v>
       </c>
@@ -6574,7 +6622,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43946</v>
       </c>

--- a/Scenario pasient-data.xlsx
+++ b/Scenario pasient-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\There\PycharmProjects\ABM---hospital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D7D928-9FE3-4BFB-8F14-54E6FB3B34B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909E3295-6512-4E17-9E8D-C252B544FBF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3D08B538-DB8C-4D4E-BD62-B68A7ED57B49}"/>
   </bookViews>
@@ -35,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Populasjon</t>
-  </si>
-  <si>
-    <t>Sykehus andel</t>
   </si>
   <si>
     <t>Av innlagte - intensiv</t>
@@ -50,9 +47,6 @@
   </si>
   <si>
     <t>Smittsom periode</t>
-  </si>
-  <si>
-    <t>Antall start</t>
   </si>
   <si>
     <t>Tid før innlagt</t>
@@ -123,6 +117,27 @@
   <si>
     <t>Sum smittede</t>
   </si>
+  <si>
+    <t>Lav</t>
+  </si>
+  <si>
+    <t>Høy</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>R-tall - April</t>
+  </si>
+  <si>
+    <t>April R start</t>
+  </si>
+  <si>
+    <t>Antall smittede 12.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andel sykehus </t>
+  </si>
 </sst>
 </file>
 
@@ -157,9 +172,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +491,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273ABD-6C74-46B1-9358-C8CB71465545}">
   <sheetPr codeName="Ark1"/>
-  <dimension ref="A1:T112"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -490,81 +506,92 @@
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.125" customWidth="1"/>
+    <col min="14" max="15" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.125" customWidth="1"/>
+    <col min="22" max="22" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43900</v>
       </c>
       <c r="B2">
-        <f>T2</f>
+        <f>V2</f>
         <v>766</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C33" si="0">B2*$Q$2</f>
+        <f t="shared" ref="C2:C33" si="0">B2*$S$2</f>
         <v>22.98</v>
       </c>
       <c r="D2">
@@ -572,7 +599,7 @@
         <v>2.50482</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="1">C2*$R$2</f>
+        <f t="shared" ref="E2:E33" si="1">C2*$T$2</f>
         <v>5.7450000000000001</v>
       </c>
       <c r="F2">
@@ -580,11 +607,11 @@
         <v>0.62620500000000001</v>
       </c>
       <c r="G2">
-        <f>T3</f>
+        <f>V3</f>
         <v>766</v>
       </c>
       <c r="H2">
-        <f>G2*$Q$3</f>
+        <f>G2*$S$3</f>
         <v>30.64</v>
       </c>
       <c r="I2">
@@ -592,44 +619,53 @@
         <v>3.3397600000000001</v>
       </c>
       <c r="J2">
-        <f>H2*$R$3</f>
+        <f>H2*$T$3</f>
         <v>7.66</v>
       </c>
       <c r="K2">
         <f>J2*0.109</f>
         <v>0.83494000000000002</v>
       </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
       <c r="M2">
         <v>1.1000000000000001</v>
       </c>
       <c r="N2">
+        <v>0.6</v>
+      </c>
+      <c r="O2" s="2">
+        <v>44301</v>
+      </c>
+      <c r="P2">
         <v>4</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>5</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>5238000</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.03</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0.25</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>8</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>766</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43901</v>
       </c>
       <c r="B3">
-        <f>B2*(1+($M2/($N2+$O2)))</f>
+        <f>B2*(1+($M2/($P2+$Q2)))</f>
         <v>859.62222222222226</v>
       </c>
       <c r="C3">
@@ -649,11 +685,11 @@
         <v>0.70274116666666664</v>
       </c>
       <c r="G3">
-        <f>G2*(1+($M$3/($N$3+$O$3)))</f>
+        <f>G2*(1+($M$3/($P$3+$Q$3)))</f>
         <v>908.25714285714287</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="4">G3*$Q$3</f>
+        <f t="shared" ref="H3:H66" si="4">G3*$S$3</f>
         <v>36.330285714285715</v>
       </c>
       <c r="I3">
@@ -661,44 +697,53 @@
         <v>3.9600011428571431</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="6">H3*$R$3</f>
+        <f t="shared" ref="J3:J66" si="6">H3*$T$3</f>
         <v>9.0825714285714287</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K66" si="7">J3*0.109</f>
         <v>0.99000028571428578</v>
       </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
       <c r="M3">
         <v>1.3</v>
       </c>
       <c r="N3">
+        <v>0.9</v>
+      </c>
+      <c r="O3" s="2">
+        <v>44286</v>
+      </c>
+      <c r="P3">
         <v>3</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>4</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>5238000</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>0.04</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0.25</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>8</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>766</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43902</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B22" si="8">B3*(1+($M$2/($N$2+$O$2)))</f>
+        <f t="shared" ref="B4:B22" si="8">B3*(1+($M$2/($P$2+$Q$2)))</f>
         <v>964.68716049382726</v>
       </c>
       <c r="C4">
@@ -718,7 +763,7 @@
         <v>0.78863175370370375</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G21" si="9">G3*(1+($M$3/($N$3+$O$3)))</f>
+        <f t="shared" ref="G4:G21" si="9">G3*(1+($M$3/($P$3+$Q$3)))</f>
         <v>1076.9334693877552</v>
       </c>
       <c r="H4">
@@ -738,10 +783,10 @@
         <v>1.173857481632653</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43903</v>
       </c>
@@ -789,7 +834,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43904</v>
       </c>
@@ -837,7 +882,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43905</v>
       </c>
@@ -881,17 +926,17 @@
         <f t="shared" si="7"/>
         <v>1.9568409558317486</v>
       </c>
-      <c r="Q7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R7" t="s">
-        <v>17</v>
-      </c>
       <c r="S7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43906</v>
       </c>
@@ -935,19 +980,23 @@
         <f t="shared" si="7"/>
         <v>2.3202542762005018</v>
       </c>
-      <c r="Q8">
+      <c r="N8">
+        <f>B2*(1+($M2/($P2+$Q2)))</f>
+        <v>859.62222222222226</v>
+      </c>
+      <c r="S8">
         <v>23</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <f>23/3</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="S8">
-        <f>R8*100</f>
+      <c r="U8">
+        <f>T8*100</f>
         <v>766.66666666666674</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43907</v>
       </c>
@@ -991,14 +1040,14 @@
         <f t="shared" si="7"/>
         <v>2.7511586417805951</v>
       </c>
-      <c r="S9" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43908</v>
       </c>
@@ -1043,7 +1092,7 @@
         <v>3.2620881038255627</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43909</v>
       </c>
@@ -1088,7 +1137,7 @@
         <v>3.867904465964596</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43910</v>
       </c>
@@ -1133,11 +1182,11 @@
         <v>4.586229581072307</v>
       </c>
       <c r="M12">
-        <f>B2*(1-($M$2/($N$2+$O$2)))</f>
+        <f>B2*(1-($M$2/($P$2+$Q$2)))</f>
         <v>672.37777777777774</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43911</v>
       </c>
@@ -1181,14 +1230,14 @@
         <f t="shared" si="7"/>
         <v>5.4379579318428783</v>
       </c>
-      <c r="O13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="Q13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="1">
         <v>43959</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43912</v>
       </c>
@@ -1232,14 +1281,14 @@
         <f t="shared" si="7"/>
         <v>6.4478644048994118</v>
       </c>
-      <c r="O14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43913</v>
       </c>
@@ -1283,14 +1332,14 @@
         <f t="shared" si="7"/>
         <v>7.6453249372378762</v>
       </c>
-      <c r="O15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43914</v>
       </c>
@@ -1335,7 +1384,7 @@
         <v>9.0651709970106236</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43915</v>
       </c>
@@ -1380,7 +1429,7 @@
         <v>10.748702753598311</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43916</v>
       </c>
@@ -1425,7 +1474,7 @@
         <v>12.744890407837998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43917</v>
       </c>
@@ -1470,7 +1519,7 @@
         <v>15.111798626436482</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43918</v>
       </c>
@@ -1515,7 +1564,7 @@
         <v>17.918275514203259</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43919</v>
       </c>
@@ -1560,7 +1609,7 @@
         <v>21.245955252555291</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43920</v>
       </c>
@@ -1585,7 +1634,7 @@
         <v>6.2848340953188826</v>
       </c>
       <c r="G22">
-        <f>G21*(1+($M$3/($N$3+$O$3)))</f>
+        <f>G21*(1+($M$3/($P$3+$Q$3)))</f>
         <v>23111.589593212178</v>
       </c>
       <c r="H22">
@@ -1605,18 +1654,18 @@
         <v>25.191632656601275</v>
       </c>
       <c r="M22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="R22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43921</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B37" si="10">B22*(1+($M$2/($N$2+$O$2)))</f>
+        <f t="shared" ref="B23:B37" si="10">B22*(1+($M$2/($P$2+$Q$2)))</f>
         <v>8627.4990639103926</v>
       </c>
       <c r="C23">
@@ -1636,7 +1685,7 @@
         <v>7.0529804847467457</v>
       </c>
       <c r="G23">
-        <f>G22*(1-($M$6/($N$3+$O$3)))</f>
+        <f>G22*(1-($M$6/($P$3+$Q$3)))</f>
         <v>22781.424027594861</v>
       </c>
       <c r="H23">
@@ -1659,24 +1708,24 @@
         <f>SUM(B2:B62)</f>
         <v>1024682.6789310077</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <f>M23*0.109</f>
         <v>111690.41200347984</v>
       </c>
-      <c r="O23">
-        <f>N23*0.0012</f>
+      <c r="Q23">
+        <f>P23*0.0012</f>
         <v>134.0284944041758</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <f>SUM(F2:F62)</f>
         <v>837.67809002609852</v>
       </c>
-      <c r="Q23">
-        <f>P23*0.029</f>
+      <c r="S23">
+        <f>R23*0.029</f>
         <v>24.292664610756859</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43922</v>
       </c>
@@ -1701,7 +1750,7 @@
         <v>7.9150114328824595</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:G87" si="11">G23*(1-($M$6/($N$3+$O$3)))</f>
+        <f>G23*(1-($M$6/($P$3+$Q$3)))</f>
         <v>22455.975112914937</v>
       </c>
       <c r="H24">
@@ -1724,24 +1773,24 @@
         <f>SUM(G2:G62)</f>
         <v>841281.35577732231</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <f>M24*0.109</f>
         <v>91699.66777972813</v>
       </c>
-      <c r="O24">
-        <f>N24*0.0012</f>
+      <c r="Q24">
+        <f>P24*0.0012</f>
         <v>110.03960133567375</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <f>SUM(K2:K62)</f>
         <v>916.99667779728111</v>
       </c>
-      <c r="Q24">
-        <f>P24*0.029</f>
+      <c r="S24">
+        <f>R24*0.029</f>
         <v>26.592903656121152</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43923</v>
       </c>
@@ -1766,7 +1815,7 @@
         <v>8.8824017191236493</v>
       </c>
       <c r="G25">
-        <f t="shared" si="11"/>
+        <f>G24*(1-($M$6/($P$3+$Q$3)))</f>
         <v>22135.175468444726</v>
       </c>
       <c r="H25">
@@ -1786,7 +1835,7 @@
         <v>24.127341260604751</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43924</v>
       </c>
@@ -1811,7 +1860,7 @@
         <v>9.9680285959054267</v>
       </c>
       <c r="G26">
-        <f t="shared" si="11"/>
+        <f>G25*(1-($M$6/($P$3+$Q$3)))</f>
         <v>21818.958676038375</v>
       </c>
       <c r="H26">
@@ -1830,12 +1879,12 @@
         <f t="shared" si="7"/>
         <v>23.782664956881828</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <f>_xlfn.DAYS(A62,A2)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43925</v>
       </c>
@@ -1860,7 +1909,7 @@
         <v>11.186343202071647</v>
       </c>
       <c r="G27">
-        <f t="shared" si="11"/>
+        <f>G26*(1-($M$6/($P$3+$Q$3)))</f>
         <v>21507.259266380686</v>
       </c>
       <c r="H27">
@@ -1880,7 +1929,7 @@
         <v>23.442912600354948</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43926</v>
       </c>
@@ -1905,7 +1954,7 @@
         <v>12.553562926769294</v>
       </c>
       <c r="G28">
-        <f t="shared" si="11"/>
+        <f>G27*(1-($M$6/($P$3+$Q$3)))</f>
         <v>21200.012705432393</v>
       </c>
       <c r="H28">
@@ -1925,7 +1974,7 @@
         <v>23.10801384892131</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43927</v>
       </c>
@@ -1950,7 +1999,7 @@
         <v>14.087887284485541</v>
       </c>
       <c r="G29">
-        <f t="shared" si="11"/>
+        <f>G28*(1-($M$6/($P$3+$Q$3)))</f>
         <v>20897.155381069075</v>
       </c>
       <c r="H29">
@@ -1970,7 +2019,7 @@
         <v>22.777899365365293</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43928</v>
       </c>
@@ -1995,7 +2044,7 @@
         <v>15.809740174811553</v>
       </c>
       <c r="G30">
-        <f t="shared" si="11"/>
+        <f>G29*(1-($M$6/($P$3+$Q$3)))</f>
         <v>20598.624589910945</v>
       </c>
       <c r="H30">
@@ -2015,7 +2064,7 @@
         <v>22.45250080300293</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43929</v>
       </c>
@@ -2040,7 +2089,7 @@
         <v>17.742041751732966</v>
       </c>
       <c r="G31">
-        <f t="shared" si="11"/>
+        <f>G30*(1-($M$6/($P$3+$Q$3)))</f>
         <v>20304.358524340791</v>
       </c>
       <c r="H31">
@@ -2060,7 +2109,7 @@
         <v>22.131750791531463</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43930</v>
       </c>
@@ -2085,7 +2134,7 @@
         <v>19.910513521389213</v>
       </c>
       <c r="G32">
-        <f t="shared" si="11"/>
+        <f>G31*(1-($M$6/($P$3+$Q$3)))</f>
         <v>20014.296259707353</v>
       </c>
       <c r="H32">
@@ -2130,7 +2179,7 @@
         <v>22.344020729559006</v>
       </c>
       <c r="G33">
-        <f t="shared" si="11"/>
+        <f>G32*(1-($M$6/($P$3+$Q$3)))</f>
         <v>19728.377741711534</v>
       </c>
       <c r="H33">
@@ -2159,7 +2208,7 @@
         <v>30672.729781657628</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C65" si="12">B34*$Q$2</f>
+        <f t="shared" ref="C34:C65" si="11">B34*$S$2</f>
         <v>920.18189344972882</v>
       </c>
       <c r="D34">
@@ -2167,7 +2216,7 @@
         <v>100.29982638602044</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="13">C34*$R$2</f>
+        <f t="shared" ref="E34:E65" si="12">C34*$T$2</f>
         <v>230.0454733624322</v>
       </c>
       <c r="F34">
@@ -2175,7 +2224,7 @@
         <v>25.07495659650511</v>
       </c>
       <c r="G34">
-        <f t="shared" si="11"/>
+        <f>G33*(1-($M$6/($P$3+$Q$3)))</f>
         <v>19446.5437739728</v>
       </c>
       <c r="H34">
@@ -2204,15 +2253,15 @@
         <v>34421.618977193561</v>
       </c>
       <c r="C35">
+        <f t="shared" si="11"/>
+        <v>1032.6485693158068</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>112.55869405542293</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="12"/>
-        <v>1032.6485693158068</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>112.55869405542293</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="13"/>
         <v>258.16214232895169</v>
       </c>
       <c r="F35">
@@ -2220,7 +2269,7 @@
         <v>28.139673513855733</v>
       </c>
       <c r="G35">
-        <f t="shared" si="11"/>
+        <f>G34*(1-($M$6/($P$3+$Q$3)))</f>
         <v>19168.736005773189</v>
       </c>
       <c r="H35">
@@ -2249,15 +2298,15 @@
         <v>38628.705741072772</v>
       </c>
       <c r="C36">
+        <f t="shared" si="11"/>
+        <v>1158.8611722321832</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>126.31586777330797</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="12"/>
-        <v>1158.8611722321832</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>126.31586777330797</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="13"/>
         <v>289.7152930580458</v>
       </c>
       <c r="F36">
@@ -2265,7 +2314,7 @@
         <v>31.578966943326993</v>
       </c>
       <c r="G36">
-        <f t="shared" si="11"/>
+        <f>G35*(1-($M$6/($P$3+$Q$3)))</f>
         <v>18894.896919976429</v>
       </c>
       <c r="H36">
@@ -2294,15 +2343,15 @@
         <v>43349.991998315003</v>
       </c>
       <c r="C37">
+        <f t="shared" si="11"/>
+        <v>1300.49975994945</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>141.75447383449006</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="12"/>
-        <v>1300.49975994945</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>141.75447383449006</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="13"/>
         <v>325.1249399873625</v>
       </c>
       <c r="F37">
@@ -2310,7 +2359,7 @@
         <v>35.438618458622514</v>
       </c>
       <c r="G37">
-        <f t="shared" si="11"/>
+        <f>G36*(1-($M$6/($P$3+$Q$3)))</f>
         <v>18624.969821119623</v>
       </c>
       <c r="H37">
@@ -2335,19 +2384,19 @@
         <v>43936</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:B97" si="14">B37*(1-($M$5/($N$2+$O$2)))</f>
+        <f>B37*(1-($M$5/($P$2+$Q$2)))</f>
         <v>41423.325687278782</v>
       </c>
       <c r="C38">
+        <f t="shared" si="11"/>
+        <v>1242.6997706183633</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>135.4542749974016</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="12"/>
-        <v>1242.6997706183633</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>135.4542749974016</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="13"/>
         <v>310.67494265459084</v>
       </c>
       <c r="F38">
@@ -2355,7 +2404,7 @@
         <v>33.863568749350399</v>
       </c>
       <c r="G38">
-        <f t="shared" si="11"/>
+        <f>G37*(1-($M$6/($P$3+$Q$3)))</f>
         <v>18358.898823675059</v>
       </c>
       <c r="H38">
@@ -2380,19 +2429,19 @@
         <v>43937</v>
       </c>
       <c r="B39">
-        <f t="shared" si="14"/>
+        <f>B38*(1-($M$5/($P$2+$Q$2)))</f>
         <v>39582.288990066394</v>
       </c>
       <c r="C39">
+        <f t="shared" si="11"/>
+        <v>1187.4686697019918</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>129.43408499751709</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="12"/>
-        <v>1187.4686697019918</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>129.43408499751709</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="13"/>
         <v>296.86716742549794</v>
       </c>
       <c r="F39">
@@ -2400,7 +2449,7 @@
         <v>32.358521249379272</v>
       </c>
       <c r="G39">
-        <f t="shared" si="11"/>
+        <f>G38*(1-($M$6/($P$3+$Q$3)))</f>
         <v>18096.628840479701</v>
       </c>
       <c r="H39">
@@ -2425,19 +2474,19 @@
         <v>43938</v>
       </c>
       <c r="B40">
-        <f t="shared" si="14"/>
+        <f>B39*(1-($M$5/($P$2+$Q$2)))</f>
         <v>37823.076146063446</v>
       </c>
       <c r="C40">
+        <f t="shared" si="11"/>
+        <v>1134.6922843819034</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>123.68145899762747</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="12"/>
-        <v>1134.6922843819034</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>123.68145899762747</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="13"/>
         <v>283.67307109547585</v>
       </c>
       <c r="F40">
@@ -2445,7 +2494,7 @@
         <v>30.920364749406868</v>
       </c>
       <c r="G40">
-        <f t="shared" si="11"/>
+        <f>G39*(1-($M$6/($P$3+$Q$3)))</f>
         <v>17838.105571329994</v>
       </c>
       <c r="H40">
@@ -2470,19 +2519,19 @@
         <v>43939</v>
       </c>
       <c r="B41">
-        <f t="shared" si="14"/>
+        <f>B40*(1-($M$5/($P$2+$Q$2)))</f>
         <v>36142.050539571741</v>
       </c>
       <c r="C41">
+        <f t="shared" si="11"/>
+        <v>1084.2615161871522</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>118.18450526439959</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="12"/>
-        <v>1084.2615161871522</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="2"/>
-        <v>118.18450526439959</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="13"/>
         <v>271.06537904678805</v>
       </c>
       <c r="F41">
@@ -2490,7 +2539,7 @@
         <v>29.546126316099897</v>
       </c>
       <c r="G41">
-        <f t="shared" si="11"/>
+        <f>G40*(1-($M$6/($P$3+$Q$3)))</f>
         <v>17583.275491739565</v>
       </c>
       <c r="H41">
@@ -2515,19 +2564,19 @@
         <v>43940</v>
       </c>
       <c r="B42">
-        <f t="shared" si="14"/>
+        <f>B41*(1-($M$5/($P$2+$Q$2)))</f>
         <v>34535.737182257442</v>
       </c>
       <c r="C42">
+        <f t="shared" si="11"/>
+        <v>1036.0721154677233</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>112.93186058598184</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="12"/>
-        <v>1036.0721154677233</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
-        <v>112.93186058598184</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="13"/>
         <v>259.01802886693082</v>
       </c>
       <c r="F42">
@@ -2535,7 +2584,7 @@
         <v>28.232965146495459</v>
       </c>
       <c r="G42">
-        <f t="shared" si="11"/>
+        <f>G41*(1-($M$6/($P$3+$Q$3)))</f>
         <v>17332.085841857574</v>
       </c>
       <c r="H42">
@@ -2560,19 +2609,19 @@
         <v>43941</v>
       </c>
       <c r="B43">
-        <f t="shared" si="14"/>
+        <f>B42*(1-($M$5/($P$2+$Q$2)))</f>
         <v>33000.815529712672</v>
       </c>
       <c r="C43">
+        <f t="shared" si="11"/>
+        <v>990.02446589138015</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>107.91266678216043</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="12"/>
-        <v>990.02446589138015</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
-        <v>107.91266678216043</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="13"/>
         <v>247.50611647284504</v>
       </c>
       <c r="F43">
@@ -2580,7 +2629,7 @@
         <v>26.978166695540107</v>
       </c>
       <c r="G43">
-        <f t="shared" si="11"/>
+        <f>G42*(1-($M$6/($P$3+$Q$3)))</f>
         <v>17084.484615545323</v>
       </c>
       <c r="H43">
@@ -2605,19 +2654,19 @@
         <v>43942</v>
       </c>
       <c r="B44">
-        <f t="shared" si="14"/>
+        <f>B43*(1-($M$5/($P$2+$Q$2)))</f>
         <v>31534.112617281</v>
       </c>
       <c r="C44">
+        <f t="shared" si="11"/>
+        <v>946.02337851842992</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>103.11654825850886</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="12"/>
-        <v>946.02337851842992</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
-        <v>103.11654825850886</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="13"/>
         <v>236.50584462960748</v>
       </c>
       <c r="F44">
@@ -2625,7 +2674,7 @@
         <v>25.779137064627214</v>
       </c>
       <c r="G44">
-        <f t="shared" si="11"/>
+        <f>G43*(1-($M$6/($P$3+$Q$3)))</f>
         <v>16840.420549608963</v>
       </c>
       <c r="H44">
@@ -2650,19 +2699,19 @@
         <v>43943</v>
       </c>
       <c r="B45">
-        <f t="shared" si="14"/>
+        <f>B44*(1-($M$5/($P$2+$Q$2)))</f>
         <v>30132.596500957403</v>
       </c>
       <c r="C45">
+        <f t="shared" si="11"/>
+        <v>903.97789502872206</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>98.533590558130697</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="12"/>
-        <v>903.97789502872206</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="2"/>
-        <v>98.533590558130697</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="13"/>
         <v>225.99447375718051</v>
       </c>
       <c r="F45">
@@ -2670,7 +2719,7 @@
         <v>24.633397639532674</v>
       </c>
       <c r="G45">
-        <f t="shared" si="11"/>
+        <f>G44*(1-($M$6/($P$3+$Q$3)))</f>
         <v>16599.84311318598</v>
       </c>
       <c r="H45">
@@ -2695,19 +2744,19 @@
         <v>43944</v>
       </c>
       <c r="B46">
-        <f t="shared" si="14"/>
+        <f>B45*(1-($M$5/($P$2+$Q$2)))</f>
         <v>28793.369989803741</v>
       </c>
       <c r="C46">
+        <f t="shared" si="11"/>
+        <v>863.80109969411217</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>94.154319866658227</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="12"/>
-        <v>863.80109969411217</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="2"/>
-        <v>94.154319866658227</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="13"/>
         <v>215.95027492352804</v>
       </c>
       <c r="F46">
@@ -2715,7 +2764,7 @@
         <v>23.538579966664557</v>
       </c>
       <c r="G46">
-        <f t="shared" si="11"/>
+        <f>G45*(1-($M$6/($P$3+$Q$3)))</f>
         <v>16362.702497283324</v>
       </c>
       <c r="H46">
@@ -2740,19 +2789,19 @@
         <v>43945</v>
       </c>
       <c r="B47">
-        <f t="shared" si="14"/>
+        <f>B46*(1-($M$5/($P$2+$Q$2)))</f>
         <v>27513.664656923575</v>
       </c>
       <c r="C47">
+        <f t="shared" si="11"/>
+        <v>825.40993970770717</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>89.969683428140087</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="12"/>
-        <v>825.40993970770717</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="2"/>
-        <v>89.969683428140087</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="13"/>
         <v>206.35248492692679</v>
       </c>
       <c r="F47">
@@ -2760,7 +2809,7 @@
         <v>22.492420857035022</v>
       </c>
       <c r="G47">
-        <f t="shared" si="11"/>
+        <f>G46*(1-($M$6/($P$3+$Q$3)))</f>
         <v>16128.949604464991</v>
       </c>
       <c r="H47">
@@ -2785,19 +2834,19 @@
         <v>43946</v>
       </c>
       <c r="B48">
-        <f t="shared" si="14"/>
+        <f>B47*(1-($M$5/($P$2+$Q$2)))</f>
         <v>26290.835116615861</v>
       </c>
       <c r="C48">
+        <f t="shared" si="11"/>
+        <v>788.72505349847575</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>85.971030831333863</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="12"/>
-        <v>788.72505349847575</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="2"/>
-        <v>85.971030831333863</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="13"/>
         <v>197.18126337461894</v>
       </c>
       <c r="F48">
@@ -2805,7 +2854,7 @@
         <v>21.492757707833466</v>
       </c>
       <c r="G48">
-        <f t="shared" si="11"/>
+        <f>G47*(1-($M$6/($P$3+$Q$3)))</f>
         <v>15898.536038686922</v>
       </c>
       <c r="H48">
@@ -2830,19 +2879,19 @@
         <v>43947</v>
       </c>
       <c r="B49">
-        <f t="shared" si="14"/>
+        <f>B48*(1-($M$5/($P$2+$Q$2)))</f>
         <v>25122.35355587738</v>
       </c>
       <c r="C49">
+        <f t="shared" si="11"/>
+        <v>753.67060667632143</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>82.150096127719038</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="12"/>
-        <v>753.67060667632143</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="2"/>
-        <v>82.150096127719038</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="13"/>
         <v>188.41765166908036</v>
       </c>
       <c r="F49">
@@ -2850,7 +2899,7 @@
         <v>20.53752403192976</v>
       </c>
       <c r="G49">
-        <f t="shared" si="11"/>
+        <f>G48*(1-($M$6/($P$3+$Q$3)))</f>
         <v>15671.414095277109</v>
       </c>
       <c r="H49">
@@ -2875,19 +2924,19 @@
         <v>43948</v>
       </c>
       <c r="B50">
-        <f t="shared" si="14"/>
+        <f>B49*(1-($M$5/($P$2+$Q$2)))</f>
         <v>24005.804508949499</v>
       </c>
       <c r="C50">
+        <f t="shared" si="11"/>
+        <v>720.17413526848497</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>78.498980744264856</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="12"/>
-        <v>720.17413526848497</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="2"/>
-        <v>78.498980744264856</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="13"/>
         <v>180.04353381712124</v>
       </c>
       <c r="F50">
@@ -2895,7 +2944,7 @@
         <v>19.624745186066214</v>
       </c>
       <c r="G50">
-        <f t="shared" si="11"/>
+        <f>G49*(1-($M$6/($P$3+$Q$3)))</f>
         <v>15447.536751058866</v>
       </c>
       <c r="H50">
@@ -2920,19 +2969,19 @@
         <v>43949</v>
       </c>
       <c r="B51">
-        <f t="shared" si="14"/>
+        <f>B50*(1-($M$5/($P$2+$Q$2)))</f>
         <v>22938.879864107301</v>
       </c>
       <c r="C51">
+        <f t="shared" si="11"/>
+        <v>688.16639592321894</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>75.010137155630858</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="12"/>
-        <v>688.16639592321894</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="2"/>
-        <v>75.010137155630858</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="13"/>
         <v>172.04159898080474</v>
       </c>
       <c r="F51">
@@ -2940,7 +2989,7 @@
         <v>18.752534288907714</v>
       </c>
       <c r="G51">
-        <f t="shared" si="11"/>
+        <f>G50*(1-($M$6/($P$3+$Q$3)))</f>
         <v>15226.857654615169</v>
       </c>
       <c r="H51">
@@ -2965,19 +3014,19 @@
         <v>43950</v>
       </c>
       <c r="B52">
-        <f t="shared" si="14"/>
+        <f>B51*(1-($M$5/($P$2+$Q$2)))</f>
         <v>21919.374092369198</v>
       </c>
       <c r="C52">
+        <f t="shared" si="11"/>
+        <v>657.58122277107589</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>71.676353282047273</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="12"/>
-        <v>657.58122277107589</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="2"/>
-        <v>71.676353282047273</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="13"/>
         <v>164.39530569276897</v>
       </c>
       <c r="F52">
@@ -2985,7 +3034,7 @@
         <v>17.919088320511818</v>
       </c>
       <c r="G52">
-        <f t="shared" si="11"/>
+        <f>G51*(1-($M$6/($P$3+$Q$3)))</f>
         <v>15009.331116692096</v>
       </c>
       <c r="H52">
@@ -3010,19 +3059,19 @@
         <v>43951</v>
       </c>
       <c r="B53">
-        <f t="shared" si="14"/>
+        <f>B52*(1-($M$5/($P$2+$Q$2)))</f>
         <v>20945.179688263903</v>
       </c>
       <c r="C53">
+        <f t="shared" si="11"/>
+        <v>628.35539064791703</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>68.490737580622962</v>
+      </c>
+      <c r="E53">
         <f t="shared" si="12"/>
-        <v>628.35539064791703</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="2"/>
-        <v>68.490737580622962</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="13"/>
         <v>157.08884766197926</v>
       </c>
       <c r="F53">
@@ -3030,7 +3079,7 @@
         <v>17.122684395155741</v>
       </c>
       <c r="G53">
-        <f t="shared" si="11"/>
+        <f>G52*(1-($M$6/($P$3+$Q$3)))</f>
         <v>14794.912100739351</v>
       </c>
       <c r="H53">
@@ -3055,19 +3104,19 @@
         <v>43952</v>
       </c>
       <c r="B54">
-        <f t="shared" si="14"/>
+        <f>B53*(1-($M$5/($P$2+$Q$2)))</f>
         <v>20014.282813229951</v>
       </c>
       <c r="C54">
+        <f t="shared" si="11"/>
+        <v>600.42848439689851</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>65.446704799261937</v>
+      </c>
+      <c r="E54">
         <f t="shared" si="12"/>
-        <v>600.42848439689851</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="2"/>
-        <v>65.446704799261937</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="13"/>
         <v>150.10712109922463</v>
       </c>
       <c r="F54">
@@ -3075,7 +3124,7 @@
         <v>16.361676199815484</v>
       </c>
       <c r="G54">
-        <f t="shared" si="11"/>
+        <f>G53*(1-($M$6/($P$3+$Q$3)))</f>
         <v>14583.556213585933</v>
       </c>
       <c r="H54">
@@ -3100,19 +3149,19 @@
         <v>43953</v>
       </c>
       <c r="B55">
-        <f t="shared" si="14"/>
+        <f>B54*(1-($M$5/($P$2+$Q$2)))</f>
         <v>19124.759132641953</v>
       </c>
       <c r="C55">
+        <f t="shared" si="11"/>
+        <v>573.74277397925857</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>62.537962363739183</v>
+      </c>
+      <c r="E55">
         <f t="shared" si="12"/>
-        <v>573.74277397925857</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="2"/>
-        <v>62.537962363739183</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="13"/>
         <v>143.43569349481464</v>
       </c>
       <c r="F55">
@@ -3120,7 +3169,7 @@
         <v>15.634490590934796</v>
       </c>
       <c r="G55">
-        <f t="shared" si="11"/>
+        <f>G54*(1-($M$6/($P$3+$Q$3)))</f>
         <v>14375.219696248991</v>
       </c>
       <c r="H55">
@@ -3145,19 +3194,19 @@
         <v>43954</v>
       </c>
       <c r="B56">
-        <f t="shared" si="14"/>
+        <f>B55*(1-($M$5/($P$2+$Q$2)))</f>
         <v>18274.769837857868</v>
       </c>
       <c r="C56">
+        <f t="shared" si="11"/>
+        <v>548.24309513573598</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>59.758497369795222</v>
+      </c>
+      <c r="E56">
         <f t="shared" si="12"/>
-        <v>548.24309513573598</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="2"/>
-        <v>59.758497369795222</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="13"/>
         <v>137.060773783934</v>
       </c>
       <c r="F56">
@@ -3165,7 +3214,7 @@
         <v>14.939624342448806</v>
       </c>
       <c r="G56">
-        <f t="shared" si="11"/>
+        <f>G55*(1-($M$6/($P$3+$Q$3)))</f>
         <v>14169.859414874007</v>
       </c>
       <c r="H56">
@@ -3190,19 +3239,19 @@
         <v>43955</v>
       </c>
       <c r="B57">
-        <f t="shared" si="14"/>
+        <f>B56*(1-($M$5/($P$2+$Q$2)))</f>
         <v>17462.557845064184</v>
       </c>
       <c r="C57">
+        <f t="shared" si="11"/>
+        <v>523.8767353519255</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>57.102564153359879</v>
+      </c>
+      <c r="E57">
         <f t="shared" si="12"/>
-        <v>523.8767353519255</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="2"/>
-        <v>57.102564153359879</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="13"/>
         <v>130.96918383798138</v>
       </c>
       <c r="F57">
@@ -3210,7 +3259,7 @@
         <v>14.27564103833997</v>
       </c>
       <c r="G57">
-        <f t="shared" si="11"/>
+        <f>G56*(1-($M$6/($P$3+$Q$3)))</f>
         <v>13967.432851804379</v>
       </c>
       <c r="H57">
@@ -3235,19 +3284,19 @@
         <v>43956</v>
       </c>
       <c r="B58">
-        <f t="shared" si="14"/>
+        <f>B57*(1-($M$5/($P$2+$Q$2)))</f>
         <v>16686.444163061333</v>
       </c>
       <c r="C58">
+        <f t="shared" si="11"/>
+        <v>500.59332489183998</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>54.564672413210559</v>
+      </c>
+      <c r="E58">
         <f t="shared" si="12"/>
-        <v>500.59332489183998</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="2"/>
-        <v>54.564672413210559</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="13"/>
         <v>125.14833122296</v>
       </c>
       <c r="F58">
@@ -3255,7 +3304,7 @@
         <v>13.64116810330264</v>
       </c>
       <c r="G58">
-        <f t="shared" si="11"/>
+        <f>G57*(1-($M$6/($P$3+$Q$3)))</f>
         <v>13767.898096778603</v>
       </c>
       <c r="H58">
@@ -3280,19 +3329,19 @@
         <v>43957</v>
       </c>
       <c r="B59">
-        <f t="shared" si="14"/>
+        <f>B58*(1-($M$5/($P$2+$Q$2)))</f>
         <v>15944.82442248083</v>
       </c>
       <c r="C59">
+        <f t="shared" si="11"/>
+        <v>478.34473267442485</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>52.139575861512306</v>
+      </c>
+      <c r="E59">
         <f t="shared" si="12"/>
-        <v>478.34473267442485</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="2"/>
-        <v>52.139575861512306</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="13"/>
         <v>119.58618316860621</v>
       </c>
       <c r="F59">
@@ -3300,7 +3349,7 @@
         <v>13.034893965378076</v>
       </c>
       <c r="G59">
-        <f t="shared" si="11"/>
+        <f>G58*(1-($M$6/($P$3+$Q$3)))</f>
         <v>13571.213838253196</v>
       </c>
       <c r="H59">
@@ -3325,19 +3374,19 @@
         <v>43958</v>
       </c>
       <c r="B60">
-        <f t="shared" si="14"/>
+        <f>B59*(1-($M$5/($P$2+$Q$2)))</f>
         <v>15236.16555925946</v>
       </c>
       <c r="C60">
+        <f t="shared" si="11"/>
+        <v>457.08496677778379</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>49.822261378778435</v>
+      </c>
+      <c r="E60">
         <f t="shared" si="12"/>
-        <v>457.08496677778379</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="2"/>
-        <v>49.822261378778435</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="13"/>
         <v>114.27124169444595</v>
       </c>
       <c r="F60">
@@ -3345,7 +3394,7 @@
         <v>12.455565344694609</v>
       </c>
       <c r="G60">
-        <f t="shared" si="11"/>
+        <f>G59*(1-($M$6/($P$3+$Q$3)))</f>
         <v>13377.339354849579</v>
       </c>
       <c r="H60">
@@ -3370,19 +3419,19 @@
         <v>43959</v>
       </c>
       <c r="B61">
-        <f t="shared" si="14"/>
+        <f>B60*(1-($M$5/($P$2+$Q$2)))</f>
         <v>14559.002645514596</v>
       </c>
       <c r="C61">
+        <f t="shared" si="11"/>
+        <v>436.77007936543788</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>47.607938650832729</v>
+      </c>
+      <c r="E61">
         <f t="shared" si="12"/>
-        <v>436.77007936543788</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="2"/>
-        <v>47.607938650832729</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="13"/>
         <v>109.19251984135947</v>
       </c>
       <c r="F61">
@@ -3390,7 +3439,7 @@
         <v>11.901984662708182</v>
       </c>
       <c r="G61">
-        <f t="shared" si="11"/>
+        <f>G60*(1-($M$6/($P$3+$Q$3)))</f>
         <v>13186.234506923156</v>
       </c>
       <c r="H61">
@@ -3410,7 +3459,7 @@
         <v>14.372995612546241</v>
       </c>
       <c r="M61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3418,19 +3467,19 @@
         <v>43960</v>
       </c>
       <c r="B62">
-        <f t="shared" si="14"/>
+        <f>B61*(1-($M$5/($P$2+$Q$2)))</f>
         <v>13911.935861269503</v>
       </c>
       <c r="C62">
+        <f t="shared" si="11"/>
+        <v>417.35807583808509</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>45.492030266351271</v>
+      </c>
+      <c r="E62">
         <f t="shared" si="12"/>
-        <v>417.35807583808509</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="2"/>
-        <v>45.492030266351271</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="13"/>
         <v>104.33951895952127</v>
       </c>
       <c r="F62">
@@ -3438,7 +3487,7 @@
         <v>11.373007566587818</v>
       </c>
       <c r="G62">
-        <f t="shared" si="11"/>
+        <f>G61*(1-($M$6/($P$3+$Q$3)))</f>
         <v>12997.859728252826</v>
       </c>
       <c r="H62">
@@ -3463,19 +3512,19 @@
         <v>43961</v>
       </c>
       <c r="B63">
-        <f t="shared" si="14"/>
+        <f>B62*(1-($M$5/($P$2+$Q$2)))</f>
         <v>13293.627600768637</v>
       </c>
       <c r="C63">
+        <f t="shared" si="11"/>
+        <v>398.80882802305911</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>43.47016225451344</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="12"/>
-        <v>398.80882802305911</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="2"/>
-        <v>43.47016225451344</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="13"/>
         <v>99.702207005764777</v>
       </c>
       <c r="F63">
@@ -3483,7 +3532,7 @@
         <v>10.86754056362836</v>
       </c>
       <c r="G63">
-        <f t="shared" si="11"/>
+        <f>G62*(1-($M$6/($P$3+$Q$3)))</f>
         <v>12812.176017849215</v>
       </c>
       <c r="H63">
@@ -3508,19 +3557,19 @@
         <v>43962</v>
       </c>
       <c r="B64">
-        <f t="shared" si="14"/>
+        <f>B63*(1-($M$5/($P$2+$Q$2)))</f>
         <v>12702.799707401144</v>
       </c>
       <c r="C64">
+        <f t="shared" si="11"/>
+        <v>381.08399122203429</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>41.538155043201733</v>
+      </c>
+      <c r="E64">
         <f t="shared" si="12"/>
-        <v>381.08399122203429</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="2"/>
-        <v>41.538155043201733</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="13"/>
         <v>95.270997805508571</v>
       </c>
       <c r="F64">
@@ -3528,7 +3577,7 @@
         <v>10.384538760800433</v>
       </c>
       <c r="G64">
-        <f t="shared" si="11"/>
+        <f>G63*(1-($M$6/($P$3+$Q$3)))</f>
         <v>12629.14493187994</v>
       </c>
       <c r="H64">
@@ -3553,19 +3602,19 @@
         <v>43963</v>
       </c>
       <c r="B65">
-        <f t="shared" si="14"/>
+        <f>B64*(1-($M$5/($P$2+$Q$2)))</f>
         <v>12138.230831516648</v>
       </c>
       <c r="C65">
+        <f t="shared" si="11"/>
+        <v>364.14692494549945</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>39.692014819059438</v>
+      </c>
+      <c r="E65">
         <f t="shared" si="12"/>
-        <v>364.14692494549945</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="2"/>
-        <v>39.692014819059438</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="13"/>
         <v>91.036731236374862</v>
       </c>
       <c r="F65">
@@ -3573,7 +3622,7 @@
         <v>9.9230037047648594</v>
       </c>
       <c r="G65">
-        <f t="shared" si="11"/>
+        <f>G64*(1-($M$6/($P$3+$Q$3)))</f>
         <v>12448.728575710227</v>
       </c>
       <c r="H65">
@@ -3598,11 +3647,11 @@
         <v>43964</v>
       </c>
       <c r="B66">
-        <f t="shared" si="14"/>
+        <f>B65*(1-($M$5/($P$2+$Q$2)))</f>
         <v>11598.753905671465</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C97" si="15">B66*$Q$2</f>
+        <f t="shared" ref="C66:C97" si="13">B66*$S$2</f>
         <v>347.96261717014391</v>
       </c>
       <c r="D66">
@@ -3610,7 +3659,7 @@
         <v>37.927925271545689</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E97" si="16">C66*$R$2</f>
+        <f t="shared" ref="E66:E97" si="14">C66*$T$2</f>
         <v>86.990654292535979</v>
       </c>
       <c r="F66">
@@ -3618,7 +3667,7 @@
         <v>9.4819813178864223</v>
       </c>
       <c r="G66">
-        <f t="shared" si="11"/>
+        <f>G65*(1-($M$6/($P$3+$Q$3)))</f>
         <v>12270.889596057224</v>
       </c>
       <c r="H66">
@@ -3643,43 +3692,43 @@
         <v>43965</v>
       </c>
       <c r="B67">
+        <f>B66*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>11083.253732086067</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="13"/>
+        <v>332.49761196258197</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D112" si="15">C67*0.109</f>
+        <v>36.242239703921435</v>
+      </c>
+      <c r="E67">
         <f t="shared" si="14"/>
-        <v>11083.253732086067</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="15"/>
-        <v>332.49761196258197</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D112" si="17">C67*0.109</f>
-        <v>36.242239703921435</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="16"/>
         <v>83.124402990645493</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F112" si="18">E67*0.109</f>
+        <f t="shared" ref="F67:F112" si="16">E67*0.109</f>
         <v>9.0605599259803586</v>
       </c>
       <c r="G67">
-        <f t="shared" si="11"/>
+        <f>G66*(1-($M$6/($P$3+$Q$3)))</f>
         <v>12095.591173256407</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H112" si="19">G67*$Q$3</f>
+        <f t="shared" ref="H67:H112" si="17">G67*$S$3</f>
         <v>483.8236469302563</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I112" si="20">H67*0.109</f>
+        <f t="shared" ref="I67:I112" si="18">H67*0.109</f>
         <v>52.736777515397939</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J112" si="21">H67*$R$3</f>
+        <f t="shared" ref="J67:J112" si="19">H67*$T$3</f>
         <v>120.95591173256408</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K112" si="22">J67*0.109</f>
+        <f t="shared" ref="K67:K112" si="20">J67*0.109</f>
         <v>13.184194378849485</v>
       </c>
     </row>
@@ -3688,43 +3737,43 @@
         <v>43966</v>
       </c>
       <c r="B68">
+        <f>B67*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>10590.664677326686</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="13"/>
+        <v>317.71994031980057</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="15"/>
+        <v>34.631473494858263</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="14"/>
-        <v>10590.664677326686</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="15"/>
-        <v>317.71994031980057</v>
-      </c>
-      <c r="D68">
+        <v>79.429985079950143</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="16"/>
+        <v>8.6578683737145656</v>
+      </c>
+      <c r="G68">
+        <f>G67*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>11922.797013638459</v>
+      </c>
+      <c r="H68">
         <f t="shared" si="17"/>
-        <v>34.631473494858263</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="16"/>
-        <v>79.429985079950143</v>
-      </c>
-      <c r="F68">
+        <v>476.91188054553839</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="18"/>
-        <v>8.6578683737145656</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="11"/>
-        <v>11922.797013638459</v>
-      </c>
-      <c r="H68">
+        <v>51.983394979463682</v>
+      </c>
+      <c r="J68">
         <f t="shared" si="19"/>
-        <v>476.91188054553839</v>
-      </c>
-      <c r="I68">
+        <v>119.2279701363846</v>
+      </c>
+      <c r="K68">
         <f t="shared" si="20"/>
-        <v>51.983394979463682</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="21"/>
-        <v>119.2279701363846</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="22"/>
         <v>12.995848744865921</v>
       </c>
     </row>
@@ -3733,43 +3782,43 @@
         <v>43967</v>
       </c>
       <c r="B69">
+        <f>B68*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>10119.968469445501</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="13"/>
+        <v>303.59905408336499</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="15"/>
+        <v>33.092296895086783</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="14"/>
-        <v>10119.968469445501</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="15"/>
-        <v>303.59905408336499</v>
-      </c>
-      <c r="D69">
+        <v>75.899763520841248</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="16"/>
+        <v>8.2730742237716957</v>
+      </c>
+      <c r="G69">
+        <f>G68*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>11752.471342015053</v>
+      </c>
+      <c r="H69">
         <f t="shared" si="17"/>
-        <v>33.092296895086783</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="16"/>
-        <v>75.899763520841248</v>
-      </c>
-      <c r="F69">
+        <v>470.09885368060213</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="18"/>
-        <v>8.2730742237716957</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="11"/>
-        <v>11752.471342015053</v>
-      </c>
-      <c r="H69">
+        <v>51.240775051185629</v>
+      </c>
+      <c r="J69">
         <f t="shared" si="19"/>
-        <v>470.09885368060213</v>
-      </c>
-      <c r="I69">
+        <v>117.52471342015053</v>
+      </c>
+      <c r="K69">
         <f t="shared" si="20"/>
-        <v>51.240775051185629</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="21"/>
-        <v>117.52471342015053</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="22"/>
         <v>12.810193762796407</v>
       </c>
     </row>
@@ -3778,43 +3827,43 @@
         <v>43968</v>
       </c>
       <c r="B70">
+        <f>B69*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>9670.192093025702</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="13"/>
+        <v>290.10576279077105</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="15"/>
+        <v>31.621528144194045</v>
+      </c>
+      <c r="E70">
         <f t="shared" si="14"/>
-        <v>9670.192093025702</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="15"/>
-        <v>290.10576279077105</v>
-      </c>
-      <c r="D70">
+        <v>72.526440697692763</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="16"/>
+        <v>7.9053820360485112</v>
+      </c>
+      <c r="G70">
+        <f>G69*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>11584.578894271981</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="17"/>
-        <v>31.621528144194045</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="16"/>
-        <v>72.526440697692763</v>
-      </c>
-      <c r="F70">
+        <v>463.38315577087923</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="18"/>
-        <v>7.9053820360485112</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="11"/>
-        <v>11584.578894271981</v>
-      </c>
-      <c r="H70">
+        <v>50.508763979025836</v>
+      </c>
+      <c r="J70">
         <f t="shared" si="19"/>
-        <v>463.38315577087923</v>
-      </c>
-      <c r="I70">
+        <v>115.84578894271981</v>
+      </c>
+      <c r="K70">
         <f t="shared" si="20"/>
-        <v>50.508763979025836</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="21"/>
-        <v>115.84578894271981</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="22"/>
         <v>12.627190994756459</v>
       </c>
     </row>
@@ -3823,43 +3872,43 @@
         <v>43969</v>
       </c>
       <c r="B71">
+        <f>B70*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>9240.4057777801154</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="13"/>
+        <v>277.21217333340343</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="15"/>
+        <v>30.216126893340974</v>
+      </c>
+      <c r="E71">
         <f t="shared" si="14"/>
-        <v>9240.4057777801154</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="15"/>
-        <v>277.21217333340343</v>
-      </c>
-      <c r="D71">
+        <v>69.303043333350857</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="16"/>
+        <v>7.5540317233352434</v>
+      </c>
+      <c r="G71">
+        <f>G70*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>11419.084910068095</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="17"/>
-        <v>30.216126893340974</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="16"/>
-        <v>69.303043333350857</v>
-      </c>
-      <c r="F71">
+        <v>456.7633964027238</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="18"/>
-        <v>7.5540317233352434</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="11"/>
-        <v>11419.084910068095</v>
-      </c>
-      <c r="H71">
+        <v>49.787210207896891</v>
+      </c>
+      <c r="J71">
         <f t="shared" si="19"/>
-        <v>456.7633964027238</v>
-      </c>
-      <c r="I71">
+        <v>114.19084910068095</v>
+      </c>
+      <c r="K71">
         <f t="shared" si="20"/>
-        <v>49.787210207896891</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="21"/>
-        <v>114.19084910068095</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="22"/>
         <v>12.446802551974223</v>
       </c>
     </row>
@@ -3868,43 +3917,43 @@
         <v>43970</v>
       </c>
       <c r="B72">
+        <f>B71*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>8829.7210765454438</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="13"/>
+        <v>264.8916322963633</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="15"/>
+        <v>28.8731879203036</v>
+      </c>
+      <c r="E72">
         <f t="shared" si="14"/>
-        <v>8829.7210765454438</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="15"/>
-        <v>264.8916322963633</v>
-      </c>
-      <c r="D72">
+        <v>66.222908074090824</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="16"/>
+        <v>7.2182969800759</v>
+      </c>
+      <c r="G72">
+        <f>G71*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>11255.955125638551</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="17"/>
-        <v>28.8731879203036</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="16"/>
-        <v>66.222908074090824</v>
-      </c>
-      <c r="F72">
+        <v>450.23820502554207</v>
+      </c>
+      <c r="I72">
         <f t="shared" si="18"/>
-        <v>7.2182969800759</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="11"/>
-        <v>11255.955125638551</v>
-      </c>
-      <c r="H72">
+        <v>49.075964347784087</v>
+      </c>
+      <c r="J72">
         <f t="shared" si="19"/>
-        <v>450.23820502554207</v>
-      </c>
-      <c r="I72">
+        <v>112.55955125638552</v>
+      </c>
+      <c r="K72">
         <f t="shared" si="20"/>
-        <v>49.075964347784087</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="21"/>
-        <v>112.55955125638552</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="22"/>
         <v>12.268991086946022</v>
       </c>
     </row>
@@ -3913,43 +3962,43 @@
         <v>43971</v>
       </c>
       <c r="B73">
+        <f>B72*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>8437.2890286989805</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="13"/>
+        <v>253.11867086096942</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="15"/>
+        <v>27.589935123845667</v>
+      </c>
+      <c r="E73">
         <f t="shared" si="14"/>
-        <v>8437.2890286989805</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="15"/>
-        <v>253.11867086096942</v>
-      </c>
-      <c r="D73">
+        <v>63.279667715242354</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="16"/>
+        <v>6.8974837809614167</v>
+      </c>
+      <c r="G73">
+        <f>G72*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>11095.155766700858</v>
+      </c>
+      <c r="H73">
         <f t="shared" si="17"/>
-        <v>27.589935123845667</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="16"/>
-        <v>63.279667715242354</v>
-      </c>
-      <c r="F73">
+        <v>443.80623066803435</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="18"/>
-        <v>6.8974837809614167</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="11"/>
-        <v>11095.155766700858</v>
-      </c>
-      <c r="H73">
+        <v>48.374879142815743</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="19"/>
-        <v>443.80623066803435</v>
-      </c>
-      <c r="I73">
+        <v>110.95155766700859</v>
+      </c>
+      <c r="K73">
         <f t="shared" si="20"/>
-        <v>48.374879142815743</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="21"/>
-        <v>110.95155766700859</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="22"/>
         <v>12.093719785703936</v>
       </c>
     </row>
@@ -3958,43 +4007,43 @@
         <v>43972</v>
       </c>
       <c r="B74">
+        <f>B73*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>8062.298405201248</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="13"/>
+        <v>241.86895215603744</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="15"/>
+        <v>26.363715785008079</v>
+      </c>
+      <c r="E74">
         <f t="shared" si="14"/>
-        <v>8062.298405201248</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="15"/>
-        <v>241.86895215603744</v>
-      </c>
-      <c r="D74">
+        <v>60.467238039009359</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="16"/>
+        <v>6.5909289462520197</v>
+      </c>
+      <c r="G74">
+        <f>G73*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>10936.653541462276</v>
+      </c>
+      <c r="H74">
         <f t="shared" si="17"/>
-        <v>26.363715785008079</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="16"/>
-        <v>60.467238039009359</v>
-      </c>
-      <c r="F74">
+        <v>437.46614165849104</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="18"/>
-        <v>6.5909289462520197</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="11"/>
-        <v>10936.653541462276</v>
-      </c>
-      <c r="H74">
+        <v>47.683809440775526</v>
+      </c>
+      <c r="J74">
         <f t="shared" si="19"/>
-        <v>437.46614165849104</v>
-      </c>
-      <c r="I74">
+        <v>109.36653541462276</v>
+      </c>
+      <c r="K74">
         <f t="shared" si="20"/>
-        <v>47.683809440775526</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="21"/>
-        <v>109.36653541462276</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="22"/>
         <v>11.920952360193882</v>
       </c>
     </row>
@@ -4003,43 +4052,43 @@
         <v>43973</v>
       </c>
       <c r="B75">
+        <f>B74*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>7703.9740316367488</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="13"/>
+        <v>231.11922094910244</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="15"/>
+        <v>25.191995083452166</v>
+      </c>
+      <c r="E75">
         <f t="shared" si="14"/>
-        <v>7703.9740316367488</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="15"/>
-        <v>231.11922094910244</v>
-      </c>
-      <c r="D75">
+        <v>57.77980523727561</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="16"/>
+        <v>6.2979987708630416</v>
+      </c>
+      <c r="G75">
+        <f>G74*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>10780.415633727102</v>
+      </c>
+      <c r="H75">
         <f t="shared" si="17"/>
-        <v>25.191995083452166</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="16"/>
-        <v>57.77980523727561</v>
-      </c>
-      <c r="F75">
+        <v>431.2166253490841</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="18"/>
-        <v>6.2979987708630416</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="11"/>
-        <v>10780.415633727102</v>
-      </c>
-      <c r="H75">
+        <v>47.002612163050166</v>
+      </c>
+      <c r="J75">
         <f t="shared" si="19"/>
-        <v>431.2166253490841</v>
-      </c>
-      <c r="I75">
+        <v>107.80415633727102</v>
+      </c>
+      <c r="K75">
         <f t="shared" si="20"/>
-        <v>47.002612163050166</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="21"/>
-        <v>107.80415633727102</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="22"/>
         <v>11.750653040762542</v>
       </c>
     </row>
@@ -4048,43 +4097,43 @@
         <v>43974</v>
       </c>
       <c r="B76">
+        <f>B75*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>7361.5751857862269</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="13"/>
+        <v>220.84725557358681</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="15"/>
+        <v>24.072350857520963</v>
+      </c>
+      <c r="E76">
         <f t="shared" si="14"/>
-        <v>7361.5751857862269</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="15"/>
-        <v>220.84725557358681</v>
-      </c>
-      <c r="D76">
+        <v>55.211813893396702</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="16"/>
+        <v>6.0180877143802407</v>
+      </c>
+      <c r="G76">
+        <f>G75*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>10626.40969610243</v>
+      </c>
+      <c r="H76">
         <f t="shared" si="17"/>
-        <v>24.072350857520963</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="16"/>
-        <v>55.211813893396702</v>
-      </c>
-      <c r="F76">
+        <v>425.05638784409717</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="18"/>
-        <v>6.0180877143802407</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="11"/>
-        <v>10626.40969610243</v>
-      </c>
-      <c r="H76">
+        <v>46.331146275006589</v>
+      </c>
+      <c r="J76">
         <f t="shared" si="19"/>
-        <v>425.05638784409717</v>
-      </c>
-      <c r="I76">
+        <v>106.26409696102429</v>
+      </c>
+      <c r="K76">
         <f t="shared" si="20"/>
-        <v>46.331146275006589</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="21"/>
-        <v>106.26409696102429</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="22"/>
         <v>11.582786568751647</v>
       </c>
     </row>
@@ -4093,43 +4142,43 @@
         <v>43975</v>
       </c>
       <c r="B77">
+        <f>B76*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>7034.3940664179509</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="13"/>
+        <v>211.03182199253851</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="15"/>
+        <v>23.002468597186699</v>
+      </c>
+      <c r="E77">
         <f t="shared" si="14"/>
-        <v>7034.3940664179509</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="15"/>
-        <v>211.03182199253851</v>
-      </c>
-      <c r="D77">
+        <v>52.757955498134628</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="16"/>
+        <v>5.7506171492966747</v>
+      </c>
+      <c r="G77">
+        <f>G76*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>10474.603843300967</v>
+      </c>
+      <c r="H77">
         <f t="shared" si="17"/>
-        <v>23.002468597186699</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="16"/>
-        <v>52.757955498134628</v>
-      </c>
-      <c r="F77">
+        <v>418.98415373203869</v>
+      </c>
+      <c r="I77">
         <f t="shared" si="18"/>
-        <v>5.7506171492966747</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="11"/>
-        <v>10474.603843300967</v>
-      </c>
-      <c r="H77">
+        <v>45.669272756792218</v>
+      </c>
+      <c r="J77">
         <f t="shared" si="19"/>
-        <v>418.98415373203869</v>
-      </c>
-      <c r="I77">
+        <v>104.74603843300967</v>
+      </c>
+      <c r="K77">
         <f t="shared" si="20"/>
-        <v>45.669272756792218</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="21"/>
-        <v>104.74603843300967</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="22"/>
         <v>11.417318189198054</v>
       </c>
     </row>
@@ -4138,43 +4187,43 @@
         <v>43976</v>
       </c>
       <c r="B78">
+        <f>B77*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>6721.7543301327087</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="13"/>
+        <v>201.65262990398125</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="15"/>
+        <v>21.980136659533954</v>
+      </c>
+      <c r="E78">
         <f t="shared" si="14"/>
-        <v>6721.7543301327087</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="15"/>
-        <v>201.65262990398125</v>
-      </c>
-      <c r="D78">
+        <v>50.413157475995312</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="16"/>
+        <v>5.4950341648834886</v>
+      </c>
+      <c r="G78">
+        <f>G77*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>10324.966645539525</v>
+      </c>
+      <c r="H78">
         <f t="shared" si="17"/>
-        <v>21.980136659533954</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="16"/>
-        <v>50.413157475995312</v>
-      </c>
-      <c r="F78">
+        <v>412.99866582158103</v>
+      </c>
+      <c r="I78">
         <f t="shared" si="18"/>
-        <v>5.4950341648834886</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="11"/>
-        <v>10324.966645539525</v>
-      </c>
-      <c r="H78">
+        <v>45.016854574552333</v>
+      </c>
+      <c r="J78">
         <f t="shared" si="19"/>
-        <v>412.99866582158103</v>
-      </c>
-      <c r="I78">
+        <v>103.24966645539526</v>
+      </c>
+      <c r="K78">
         <f t="shared" si="20"/>
-        <v>45.016854574552333</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="21"/>
-        <v>103.24966645539526</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="22"/>
         <v>11.254213643638083</v>
       </c>
     </row>
@@ -4183,43 +4232,43 @@
         <v>43977</v>
       </c>
       <c r="B79">
+        <f>B78*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>6423.009693237922</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="13"/>
+        <v>192.69029079713766</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="15"/>
+        <v>21.003241696888004</v>
+      </c>
+      <c r="E79">
         <f t="shared" si="14"/>
-        <v>6423.009693237922</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="15"/>
-        <v>192.69029079713766</v>
-      </c>
-      <c r="D79">
+        <v>48.172572699284416</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="16"/>
+        <v>5.2508104242220011</v>
+      </c>
+      <c r="G79">
+        <f>G78*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>10177.467122031818</v>
+      </c>
+      <c r="H79">
         <f t="shared" si="17"/>
-        <v>21.003241696888004</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="16"/>
-        <v>48.172572699284416</v>
-      </c>
-      <c r="F79">
+        <v>407.09868488127273</v>
+      </c>
+      <c r="I79">
         <f t="shared" si="18"/>
-        <v>5.2508104242220011</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="11"/>
-        <v>10177.467122031818</v>
-      </c>
-      <c r="H79">
+        <v>44.373756652058731</v>
+      </c>
+      <c r="J79">
         <f t="shared" si="19"/>
-        <v>407.09868488127273</v>
-      </c>
-      <c r="I79">
+        <v>101.77467122031818</v>
+      </c>
+      <c r="K79">
         <f t="shared" si="20"/>
-        <v>44.373756652058731</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="21"/>
-        <v>101.77467122031818</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="22"/>
         <v>11.093439163014683</v>
       </c>
     </row>
@@ -4228,43 +4277,43 @@
         <v>43978</v>
       </c>
       <c r="B80">
+        <f>B79*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>6137.5425957606813</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="13"/>
+        <v>184.12627787282042</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="15"/>
+        <v>20.069764288137428</v>
+      </c>
+      <c r="E80">
         <f t="shared" si="14"/>
-        <v>6137.5425957606813</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="15"/>
-        <v>184.12627787282042</v>
-      </c>
-      <c r="D80">
+        <v>46.031569468205106</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="16"/>
+        <v>5.017441072034357</v>
+      </c>
+      <c r="G80">
+        <f>G79*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>10032.07473457422</v>
+      </c>
+      <c r="H80">
         <f t="shared" si="17"/>
-        <v>20.069764288137428</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="16"/>
-        <v>46.031569468205106</v>
-      </c>
-      <c r="F80">
+        <v>401.28298938296882</v>
+      </c>
+      <c r="I80">
         <f t="shared" si="18"/>
-        <v>5.017441072034357</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="11"/>
-        <v>10032.07473457422</v>
-      </c>
-      <c r="H80">
+        <v>43.739845842743598</v>
+      </c>
+      <c r="J80">
         <f t="shared" si="19"/>
-        <v>401.28298938296882</v>
-      </c>
-      <c r="I80">
+        <v>100.32074734574221</v>
+      </c>
+      <c r="K80">
         <f t="shared" si="20"/>
-        <v>43.739845842743598</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="21"/>
-        <v>100.32074734574221</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="22"/>
         <v>10.9349614606859</v>
       </c>
     </row>
@@ -4273,43 +4322,43 @@
         <v>43979</v>
       </c>
       <c r="B81">
+        <f>B80*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>5864.7629248379844</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="13"/>
+        <v>175.94288774513953</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="15"/>
+        <v>19.17777476422021</v>
+      </c>
+      <c r="E81">
         <f t="shared" si="14"/>
-        <v>5864.7629248379844</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="15"/>
-        <v>175.94288774513953</v>
-      </c>
-      <c r="D81">
+        <v>43.985721936284882</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="16"/>
+        <v>4.7944436910550525</v>
+      </c>
+      <c r="G81">
+        <f>G80*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>9888.7593812231607</v>
+      </c>
+      <c r="H81">
         <f t="shared" si="17"/>
-        <v>19.17777476422021</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="16"/>
-        <v>43.985721936284882</v>
-      </c>
-      <c r="F81">
+        <v>395.55037524892646</v>
+      </c>
+      <c r="I81">
         <f t="shared" si="18"/>
-        <v>4.7944436910550525</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="11"/>
-        <v>9888.7593812231607</v>
-      </c>
-      <c r="H81">
+        <v>43.11499090213298</v>
+      </c>
+      <c r="J81">
         <f t="shared" si="19"/>
-        <v>395.55037524892646</v>
-      </c>
-      <c r="I81">
+        <v>98.887593812231614</v>
+      </c>
+      <c r="K81">
         <f t="shared" si="20"/>
-        <v>43.11499090213298</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="21"/>
-        <v>98.887593812231614</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="22"/>
         <v>10.778747725533245</v>
       </c>
     </row>
@@ -4318,43 +4367,43 @@
         <v>43980</v>
       </c>
       <c r="B82">
+        <f>B81*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>5604.1067948451855</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="13"/>
+        <v>168.12320384535556</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="15"/>
+        <v>18.325429219143757</v>
+      </c>
+      <c r="E82">
         <f t="shared" si="14"/>
-        <v>5604.1067948451855</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="15"/>
-        <v>168.12320384535556</v>
-      </c>
-      <c r="D82">
+        <v>42.03080096133889</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="16"/>
+        <v>4.5813573047859393</v>
+      </c>
+      <c r="G82">
+        <f>G81*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>9747.4913900628308</v>
+      </c>
+      <c r="H82">
         <f t="shared" si="17"/>
-        <v>18.325429219143757</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="16"/>
-        <v>42.03080096133889</v>
-      </c>
-      <c r="F82">
+        <v>389.89965560251323</v>
+      </c>
+      <c r="I82">
         <f t="shared" si="18"/>
-        <v>4.5813573047859393</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="11"/>
-        <v>9747.4913900628308</v>
-      </c>
-      <c r="H82">
+        <v>42.49906246067394</v>
+      </c>
+      <c r="J82">
         <f t="shared" si="19"/>
-        <v>389.89965560251323</v>
-      </c>
-      <c r="I82">
+        <v>97.474913900628309</v>
+      </c>
+      <c r="K82">
         <f t="shared" si="20"/>
-        <v>42.49906246067394</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="21"/>
-        <v>97.474913900628309</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="22"/>
         <v>10.624765615168485</v>
       </c>
     </row>
@@ -4363,43 +4412,43 @@
         <v>43981</v>
       </c>
       <c r="B83">
+        <f>B82*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>5355.035381740955</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="13"/>
+        <v>160.65106145222865</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="15"/>
+        <v>17.510965698292921</v>
+      </c>
+      <c r="E83">
         <f t="shared" si="14"/>
-        <v>5355.035381740955</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="15"/>
-        <v>160.65106145222865</v>
-      </c>
-      <c r="D83">
+        <v>40.162765363057161</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="16"/>
+        <v>4.3777414245732302</v>
+      </c>
+      <c r="G83">
+        <f>G82*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>9608.2415130619338</v>
+      </c>
+      <c r="H83">
         <f t="shared" si="17"/>
-        <v>17.510965698292921</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="16"/>
-        <v>40.162765363057161</v>
-      </c>
-      <c r="F83">
+        <v>384.32966052247735</v>
+      </c>
+      <c r="I83">
         <f t="shared" si="18"/>
-        <v>4.3777414245732302</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="11"/>
-        <v>9608.2415130619338</v>
-      </c>
-      <c r="H83">
+        <v>41.891932996950032</v>
+      </c>
+      <c r="J83">
         <f t="shared" si="19"/>
-        <v>384.32966052247735</v>
-      </c>
-      <c r="I83">
+        <v>96.082415130619339</v>
+      </c>
+      <c r="K83">
         <f t="shared" si="20"/>
-        <v>41.891932996950032</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="21"/>
-        <v>96.082415130619339</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="22"/>
         <v>10.472983249237508</v>
       </c>
     </row>
@@ -4408,43 +4457,43 @@
         <v>43982</v>
       </c>
       <c r="B84">
+        <f>B83*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>5117.033809219135</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="13"/>
+        <v>153.51101427657406</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="15"/>
+        <v>16.732700556146572</v>
+      </c>
+      <c r="E84">
         <f t="shared" si="14"/>
-        <v>5117.033809219135</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="15"/>
-        <v>153.51101427657406</v>
-      </c>
-      <c r="D84">
+        <v>38.377753569143515</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="16"/>
+        <v>4.183175139036643</v>
+      </c>
+      <c r="G84">
+        <f>G83*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>9470.9809200181917</v>
+      </c>
+      <c r="H84">
         <f t="shared" si="17"/>
-        <v>16.732700556146572</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="16"/>
-        <v>38.377753569143515</v>
-      </c>
-      <c r="F84">
+        <v>378.83923680072769</v>
+      </c>
+      <c r="I84">
         <f t="shared" si="18"/>
-        <v>4.183175139036643</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="11"/>
-        <v>9470.9809200181917</v>
-      </c>
-      <c r="H84">
+        <v>41.293476811279319</v>
+      </c>
+      <c r="J84">
         <f t="shared" si="19"/>
-        <v>378.83923680072769</v>
-      </c>
-      <c r="I84">
+        <v>94.709809200181923</v>
+      </c>
+      <c r="K84">
         <f t="shared" si="20"/>
-        <v>41.293476811279319</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="21"/>
-        <v>94.709809200181923</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="22"/>
         <v>10.32336920281983</v>
       </c>
     </row>
@@ -4453,43 +4502,43 @@
         <v>43983</v>
       </c>
       <c r="B85">
+        <f>B84*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>4889.6100843649519</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="13"/>
+        <v>146.68830253094856</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="15"/>
+        <v>15.989024975873393</v>
+      </c>
+      <c r="E85">
         <f t="shared" si="14"/>
-        <v>4889.6100843649519</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="15"/>
-        <v>146.68830253094856</v>
-      </c>
-      <c r="D85">
+        <v>36.67207563273714</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="16"/>
+        <v>3.9972562439683483</v>
+      </c>
+      <c r="G85">
+        <f>G84*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>9335.6811925893617</v>
+      </c>
+      <c r="H85">
         <f t="shared" si="17"/>
-        <v>15.989024975873393</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="16"/>
-        <v>36.67207563273714</v>
-      </c>
-      <c r="F85">
+        <v>373.42724770357449</v>
+      </c>
+      <c r="I85">
         <f t="shared" si="18"/>
-        <v>3.9972562439683483</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="11"/>
-        <v>9335.6811925893617</v>
-      </c>
-      <c r="H85">
+        <v>40.70356999968962</v>
+      </c>
+      <c r="J85">
         <f t="shared" si="19"/>
-        <v>373.42724770357449</v>
-      </c>
-      <c r="I85">
+        <v>93.356811925893624</v>
+      </c>
+      <c r="K85">
         <f t="shared" si="20"/>
-        <v>40.70356999968962</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="21"/>
-        <v>93.356811925893624</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="22"/>
         <v>10.175892499922405</v>
       </c>
     </row>
@@ -4498,43 +4547,43 @@
         <v>43984</v>
       </c>
       <c r="B86">
+        <f>B85*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>4672.2940806153983</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="13"/>
+        <v>140.16882241846196</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="15"/>
+        <v>15.278401643612353</v>
+      </c>
+      <c r="E86">
         <f t="shared" si="14"/>
-        <v>4672.2940806153983</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="15"/>
-        <v>140.16882241846196</v>
-      </c>
-      <c r="D86">
+        <v>35.042205604615489</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="16"/>
+        <v>3.8196004109030883</v>
+      </c>
+      <c r="G86">
+        <f>G85*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>9202.3143184095134</v>
+      </c>
+      <c r="H86">
         <f t="shared" si="17"/>
-        <v>15.278401643612353</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="16"/>
-        <v>35.042205604615489</v>
-      </c>
-      <c r="F86">
+        <v>368.09257273638053</v>
+      </c>
+      <c r="I86">
         <f t="shared" si="18"/>
-        <v>3.8196004109030883</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="11"/>
-        <v>9202.3143184095134</v>
-      </c>
-      <c r="H86">
+        <v>40.12209042826548</v>
+      </c>
+      <c r="J86">
         <f t="shared" si="19"/>
-        <v>368.09257273638053</v>
-      </c>
-      <c r="I86">
+        <v>92.023143184095133</v>
+      </c>
+      <c r="K86">
         <f t="shared" si="20"/>
-        <v>40.12209042826548</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="21"/>
-        <v>92.023143184095133</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="22"/>
         <v>10.03052260706637</v>
       </c>
     </row>
@@ -4543,43 +4592,43 @@
         <v>43985</v>
       </c>
       <c r="B87">
+        <f>B86*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>4464.6365659213807</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="13"/>
+        <v>133.93909697764141</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="15"/>
+        <v>14.599361570562914</v>
+      </c>
+      <c r="E87">
         <f t="shared" si="14"/>
-        <v>4464.6365659213807</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="15"/>
-        <v>133.93909697764141</v>
-      </c>
-      <c r="D87">
+        <v>33.484774244410353</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="16"/>
+        <v>3.6498403926407286</v>
+      </c>
+      <c r="G87">
+        <f>G86*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>9070.8526852893774</v>
+      </c>
+      <c r="H87">
         <f t="shared" si="17"/>
-        <v>14.599361570562914</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="16"/>
-        <v>33.484774244410353</v>
-      </c>
-      <c r="F87">
+        <v>362.83410741157508</v>
+      </c>
+      <c r="I87">
         <f t="shared" si="18"/>
-        <v>3.6498403926407286</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="11"/>
-        <v>9070.8526852893774</v>
-      </c>
-      <c r="H87">
+        <v>39.548917707861683</v>
+      </c>
+      <c r="J87">
         <f t="shared" si="19"/>
-        <v>362.83410741157508</v>
-      </c>
-      <c r="I87">
+        <v>90.708526852893769</v>
+      </c>
+      <c r="K87">
         <f t="shared" si="20"/>
-        <v>39.548917707861683</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="21"/>
-        <v>90.708526852893769</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="22"/>
         <v>9.8872294269654208</v>
       </c>
     </row>
@@ -4588,43 +4637,43 @@
         <v>43986</v>
       </c>
       <c r="B88">
+        <f>B87*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>4266.2082741026525</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="13"/>
+        <v>127.98624822307957</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="15"/>
+        <v>13.950501056315673</v>
+      </c>
+      <c r="E88">
         <f t="shared" si="14"/>
-        <v>4266.2082741026525</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="15"/>
-        <v>127.98624822307957</v>
-      </c>
-      <c r="D88">
+        <v>31.996562055769893</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="16"/>
+        <v>3.4876252640789183</v>
+      </c>
+      <c r="G88">
+        <f>G87*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>8941.2690754995292</v>
+      </c>
+      <c r="H88">
         <f t="shared" si="17"/>
-        <v>13.950501056315673</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="16"/>
-        <v>31.996562055769893</v>
-      </c>
-      <c r="F88">
+        <v>357.65076301998118</v>
+      </c>
+      <c r="I88">
         <f t="shared" si="18"/>
-        <v>3.4876252640789183</v>
-      </c>
-      <c r="G88">
-        <f t="shared" ref="G88:G112" si="23">G87*(1-($M$6/($N$3+$O$3)))</f>
-        <v>8941.2690754995292</v>
-      </c>
-      <c r="H88">
+        <v>38.983933169177952</v>
+      </c>
+      <c r="J88">
         <f t="shared" si="19"/>
-        <v>357.65076301998118</v>
-      </c>
-      <c r="I88">
+        <v>89.412690754995296</v>
+      </c>
+      <c r="K88">
         <f t="shared" si="20"/>
-        <v>38.983933169177952</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="21"/>
-        <v>89.412690754995296</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="22"/>
         <v>9.745983292294488</v>
       </c>
     </row>
@@ -4633,43 +4682,43 @@
         <v>43987</v>
       </c>
       <c r="B89">
+        <f>B88*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>4076.5990174758681</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="13"/>
+        <v>122.29797052427604</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="15"/>
+        <v>13.330478787146088</v>
+      </c>
+      <c r="E89">
         <f t="shared" si="14"/>
-        <v>4076.5990174758681</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="15"/>
-        <v>122.29797052427604</v>
-      </c>
-      <c r="D89">
+        <v>30.57449263106901</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="16"/>
+        <v>3.332619696786522</v>
+      </c>
+      <c r="G89">
+        <f>G88*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>8813.5366601352507</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="17"/>
-        <v>13.330478787146088</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="16"/>
-        <v>30.57449263106901</v>
-      </c>
-      <c r="F89">
+        <v>352.54146640541006</v>
+      </c>
+      <c r="I89">
         <f t="shared" si="18"/>
-        <v>3.332619696786522</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="23"/>
-        <v>8813.5366601352507</v>
-      </c>
-      <c r="H89">
+        <v>38.427019838189693</v>
+      </c>
+      <c r="J89">
         <f t="shared" si="19"/>
-        <v>352.54146640541006</v>
-      </c>
-      <c r="I89">
+        <v>88.135366601352516</v>
+      </c>
+      <c r="K89">
         <f t="shared" si="20"/>
-        <v>38.427019838189693</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="21"/>
-        <v>88.135366601352516</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="22"/>
         <v>9.6067549595474233</v>
       </c>
     </row>
@@ -4678,43 +4727,43 @@
         <v>43988</v>
       </c>
       <c r="B90">
+        <f>B89*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>3895.4168389213851</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="13"/>
+        <v>116.86250516764154</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="15"/>
+        <v>12.738013063272929</v>
+      </c>
+      <c r="E90">
         <f t="shared" si="14"/>
-        <v>3895.4168389213851</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="15"/>
-        <v>116.86250516764154</v>
-      </c>
-      <c r="D90">
+        <v>29.215626291910386</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="16"/>
+        <v>3.1845032658182322</v>
+      </c>
+      <c r="G90">
+        <f>G89*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>8687.6289935618897</v>
+      </c>
+      <c r="H90">
         <f t="shared" si="17"/>
-        <v>12.738013063272929</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="16"/>
-        <v>29.215626291910386</v>
-      </c>
-      <c r="F90">
+        <v>347.5051597424756</v>
+      </c>
+      <c r="I90">
         <f t="shared" si="18"/>
-        <v>3.1845032658182322</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="23"/>
-        <v>8687.6289935618897</v>
-      </c>
-      <c r="H90">
+        <v>37.878062411929839</v>
+      </c>
+      <c r="J90">
         <f t="shared" si="19"/>
-        <v>347.5051597424756</v>
-      </c>
-      <c r="I90">
+        <v>86.8762899356189</v>
+      </c>
+      <c r="K90">
         <f t="shared" si="20"/>
-        <v>37.878062411929839</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="21"/>
-        <v>86.8762899356189</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="22"/>
         <v>9.4695156029824599</v>
       </c>
     </row>
@@ -4723,43 +4772,43 @@
         <v>43989</v>
       </c>
       <c r="B91">
+        <f>B90*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>3722.2872016359902</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="13"/>
+        <v>111.6686160490797</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="15"/>
+        <v>12.171879149349687</v>
+      </c>
+      <c r="E91">
         <f t="shared" si="14"/>
-        <v>3722.2872016359902</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="15"/>
-        <v>111.6686160490797</v>
-      </c>
-      <c r="D91">
+        <v>27.917154012269926</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="16"/>
+        <v>3.0429697873374217</v>
+      </c>
+      <c r="G91">
+        <f>G90*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>8563.5200079395781</v>
+      </c>
+      <c r="H91">
         <f t="shared" si="17"/>
-        <v>12.171879149349687</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="16"/>
-        <v>27.917154012269926</v>
-      </c>
-      <c r="F91">
+        <v>342.54080031758315</v>
+      </c>
+      <c r="I91">
         <f t="shared" si="18"/>
-        <v>3.0429697873374217</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="23"/>
-        <v>8563.5200079395781</v>
-      </c>
-      <c r="H91">
+        <v>37.336947234616567</v>
+      </c>
+      <c r="J91">
         <f t="shared" si="19"/>
-        <v>342.54080031758315</v>
-      </c>
-      <c r="I91">
+        <v>85.635200079395787</v>
+      </c>
+      <c r="K91">
         <f t="shared" si="20"/>
-        <v>37.336947234616567</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="21"/>
-        <v>85.635200079395787</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="22"/>
         <v>9.3342368086541416</v>
       </c>
     </row>
@@ -4768,43 +4817,43 @@
         <v>43990</v>
       </c>
       <c r="B92">
+        <f>B91*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>3556.8522148966131</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="13"/>
+        <v>106.70556644689839</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="15"/>
+        <v>11.630906742711923</v>
+      </c>
+      <c r="E92">
         <f t="shared" si="14"/>
-        <v>3556.8522148966131</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="15"/>
-        <v>106.70556644689839</v>
-      </c>
-      <c r="D92">
+        <v>26.676391611724597</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="16"/>
+        <v>2.9077266856779809</v>
+      </c>
+      <c r="G92">
+        <f>G91*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>8441.1840078261557</v>
+      </c>
+      <c r="H92">
         <f t="shared" si="17"/>
-        <v>11.630906742711923</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="16"/>
-        <v>26.676391611724597</v>
-      </c>
-      <c r="F92">
+        <v>337.64736031304625</v>
+      </c>
+      <c r="I92">
         <f t="shared" si="18"/>
-        <v>2.9077266856779809</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="23"/>
-        <v>8441.1840078261557</v>
-      </c>
-      <c r="H92">
+        <v>36.803562274122044</v>
+      </c>
+      <c r="J92">
         <f t="shared" si="19"/>
-        <v>337.64736031304625</v>
-      </c>
-      <c r="I92">
+        <v>84.411840078261562</v>
+      </c>
+      <c r="K92">
         <f t="shared" si="20"/>
-        <v>36.803562274122044</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="21"/>
-        <v>84.411840078261562</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="22"/>
         <v>9.2008905685305109</v>
       </c>
     </row>
@@ -4813,43 +4862,43 @@
         <v>43991</v>
       </c>
       <c r="B93">
+        <f>B92*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>3398.7698942345414</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="13"/>
+        <v>101.96309682703624</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="15"/>
+        <v>11.113977554146951</v>
+      </c>
+      <c r="E93">
         <f t="shared" si="14"/>
-        <v>3398.7698942345414</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="15"/>
-        <v>101.96309682703624</v>
-      </c>
-      <c r="D93">
+        <v>25.49077420675906</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="16"/>
+        <v>2.7784943885367377</v>
+      </c>
+      <c r="G93">
+        <f>G92*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>8320.5956648572119</v>
+      </c>
+      <c r="H93">
         <f t="shared" si="17"/>
-        <v>11.113977554146951</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="16"/>
-        <v>25.49077420675906</v>
-      </c>
-      <c r="F93">
+        <v>332.82382659428851</v>
+      </c>
+      <c r="I93">
         <f t="shared" si="18"/>
-        <v>2.7784943885367377</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="23"/>
-        <v>8320.5956648572119</v>
-      </c>
-      <c r="H93">
+        <v>36.277797098777448</v>
+      </c>
+      <c r="J93">
         <f t="shared" si="19"/>
-        <v>332.82382659428851</v>
-      </c>
-      <c r="I93">
+        <v>83.205956648572126</v>
+      </c>
+      <c r="K93">
         <f t="shared" si="20"/>
-        <v>36.277797098777448</v>
-      </c>
-      <c r="J93">
-        <f t="shared" si="21"/>
-        <v>83.205956648572126</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="22"/>
         <v>9.069449274694362</v>
       </c>
     </row>
@@ -4858,43 +4907,43 @@
         <v>43992</v>
       </c>
       <c r="B94">
+        <f>B93*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>3247.713454490784</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="13"/>
+        <v>97.431403634723523</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="15"/>
+        <v>10.620022996184863</v>
+      </c>
+      <c r="E94">
         <f t="shared" si="14"/>
-        <v>3247.713454490784</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="15"/>
-        <v>97.431403634723523</v>
-      </c>
-      <c r="D94">
+        <v>24.357850908680881</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="16"/>
+        <v>2.6550057490462158</v>
+      </c>
+      <c r="G94">
+        <f>G93*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>8201.7300125021102</v>
+      </c>
+      <c r="H94">
         <f t="shared" si="17"/>
-        <v>10.620022996184863</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="16"/>
-        <v>24.357850908680881</v>
-      </c>
-      <c r="F94">
+        <v>328.06920050008443</v>
+      </c>
+      <c r="I94">
         <f t="shared" si="18"/>
-        <v>2.6550057490462158</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="23"/>
-        <v>8201.7300125021102</v>
-      </c>
-      <c r="H94">
+        <v>35.759542854509206</v>
+      </c>
+      <c r="J94">
         <f t="shared" si="19"/>
-        <v>328.06920050008443</v>
-      </c>
-      <c r="I94">
+        <v>82.017300125021109</v>
+      </c>
+      <c r="K94">
         <f t="shared" si="20"/>
-        <v>35.759542854509206</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="21"/>
-        <v>82.017300125021109</v>
-      </c>
-      <c r="K94">
-        <f t="shared" si="22"/>
         <v>8.9398857136273016</v>
       </c>
     </row>
@@ -4903,43 +4952,43 @@
         <v>43993</v>
       </c>
       <c r="B95">
+        <f>B94*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>3103.3706342911937</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="13"/>
+        <v>93.101119028735809</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="15"/>
+        <v>10.148021974132202</v>
+      </c>
+      <c r="E95">
         <f t="shared" si="14"/>
-        <v>3103.3706342911937</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="15"/>
-        <v>93.101119028735809</v>
-      </c>
-      <c r="D95">
+        <v>23.275279757183952</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="16"/>
+        <v>2.5370054935330506</v>
+      </c>
+      <c r="G95">
+        <f>G94*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>8084.5624408949379</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="17"/>
-        <v>10.148021974132202</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="16"/>
-        <v>23.275279757183952</v>
-      </c>
-      <c r="F95">
+        <v>323.38249763579751</v>
+      </c>
+      <c r="I95">
         <f t="shared" si="18"/>
-        <v>2.5370054935330506</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="23"/>
-        <v>8084.5624408949379</v>
-      </c>
-      <c r="H95">
+        <v>35.248692242301928</v>
+      </c>
+      <c r="J95">
         <f t="shared" si="19"/>
-        <v>323.38249763579751</v>
-      </c>
-      <c r="I95">
+        <v>80.845624408949377</v>
+      </c>
+      <c r="K95">
         <f t="shared" si="20"/>
-        <v>35.248692242301928</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="21"/>
-        <v>80.845624408949377</v>
-      </c>
-      <c r="K95">
-        <f t="shared" si="22"/>
         <v>8.812173060575482</v>
       </c>
     </row>
@@ -4948,43 +4997,43 @@
         <v>43994</v>
       </c>
       <c r="B96">
+        <f>B95*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>2965.4430505449186</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="13"/>
+        <v>88.963291516347553</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="15"/>
+        <v>9.6969987752818838</v>
+      </c>
+      <c r="E96">
         <f t="shared" si="14"/>
-        <v>2965.4430505449186</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="15"/>
-        <v>88.963291516347553</v>
-      </c>
-      <c r="D96">
+        <v>22.240822879086888</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="16"/>
+        <v>2.424249693820471</v>
+      </c>
+      <c r="G96">
+        <f>G95*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>7969.0686917392968</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="17"/>
-        <v>9.6969987752818838</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="16"/>
-        <v>22.240822879086888</v>
-      </c>
-      <c r="F96">
+        <v>318.76274766957187</v>
+      </c>
+      <c r="I96">
         <f t="shared" si="18"/>
-        <v>2.424249693820471</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="23"/>
-        <v>7969.0686917392968</v>
-      </c>
-      <c r="H96">
+        <v>34.745139495983331</v>
+      </c>
+      <c r="J96">
         <f t="shared" si="19"/>
-        <v>318.76274766957187</v>
-      </c>
-      <c r="I96">
+        <v>79.690686917392966</v>
+      </c>
+      <c r="K96">
         <f t="shared" si="20"/>
-        <v>34.745139495983331</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="21"/>
-        <v>79.690686917392966</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="22"/>
         <v>8.6862848739958327</v>
       </c>
     </row>
@@ -4993,43 +5042,43 @@
         <v>43995</v>
       </c>
       <c r="B97">
+        <f>B96*(1-($M$5/($P$2+$Q$2)))</f>
+        <v>2833.6455816318112</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="13"/>
+        <v>85.009367448954336</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="15"/>
+        <v>9.266021051936022</v>
+      </c>
+      <c r="E97">
         <f t="shared" si="14"/>
-        <v>2833.6455816318112</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="15"/>
-        <v>85.009367448954336</v>
-      </c>
-      <c r="D97">
+        <v>21.252341862238584</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="16"/>
+        <v>2.3165052629840055</v>
+      </c>
+      <c r="G97">
+        <f>G96*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>7855.2248532858785</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="17"/>
-        <v>9.266021051936022</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="16"/>
-        <v>21.252341862238584</v>
-      </c>
-      <c r="F97">
+        <v>314.20899413143513</v>
+      </c>
+      <c r="I97">
         <f t="shared" si="18"/>
-        <v>2.3165052629840055</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="23"/>
-        <v>7855.2248532858785</v>
-      </c>
-      <c r="H97">
+        <v>34.248780360326428</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="19"/>
-        <v>314.20899413143513</v>
-      </c>
-      <c r="I97">
+        <v>78.552248532858783</v>
+      </c>
+      <c r="K97">
         <f t="shared" si="20"/>
-        <v>34.248780360326428</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="21"/>
-        <v>78.552248532858783</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="22"/>
         <v>8.5621950900816071</v>
       </c>
     </row>
@@ -5038,43 +5087,43 @@
         <v>43996</v>
       </c>
       <c r="B98">
-        <f t="shared" ref="B98:B112" si="24">B97*(1-($M$5/($N$2+$O$2)))</f>
+        <f>B97*(1-($M$5/($P$2+$Q$2)))</f>
         <v>2707.7057780037308</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:C129" si="25">B98*$Q$2</f>
+        <f t="shared" ref="C98:C112" si="21">B98*$S$2</f>
         <v>81.231173340111923</v>
       </c>
       <c r="D98">
+        <f t="shared" si="15"/>
+        <v>8.8541978940722004</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ref="E98:E112" si="22">C98*$T$2</f>
+        <v>20.307793335027981</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="16"/>
+        <v>2.2135494735180501</v>
+      </c>
+      <c r="G98">
+        <f>G97*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>7743.0073553817947</v>
+      </c>
+      <c r="H98">
         <f t="shared" si="17"/>
-        <v>8.8541978940722004</v>
-      </c>
-      <c r="E98">
-        <f t="shared" ref="E98:E129" si="26">C98*$R$2</f>
-        <v>20.307793335027981</v>
-      </c>
-      <c r="F98">
+        <v>309.72029421527179</v>
+      </c>
+      <c r="I98">
         <f t="shared" si="18"/>
-        <v>2.2135494735180501</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="23"/>
-        <v>7743.0073553817947</v>
-      </c>
-      <c r="H98">
+        <v>33.759512069464627</v>
+      </c>
+      <c r="J98">
         <f t="shared" si="19"/>
-        <v>309.72029421527179</v>
-      </c>
-      <c r="I98">
+        <v>77.430073553817948</v>
+      </c>
+      <c r="K98">
         <f t="shared" si="20"/>
-        <v>33.759512069464627</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="21"/>
-        <v>77.430073553817948</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="22"/>
         <v>8.4398780173661567</v>
       </c>
     </row>
@@ -5083,43 +5132,43 @@
         <v>43997</v>
       </c>
       <c r="B99">
-        <f t="shared" si="24"/>
+        <f>B98*(1-($M$5/($P$2+$Q$2)))</f>
         <v>2587.3632989813427</v>
       </c>
       <c r="C99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>77.620898969440276</v>
       </c>
       <c r="D99">
+        <f t="shared" si="15"/>
+        <v>8.4606779876689906</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="22"/>
+        <v>19.405224742360069</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="16"/>
+        <v>2.1151694969172476</v>
+      </c>
+      <c r="G99">
+        <f>G98*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>7632.3929645906264</v>
+      </c>
+      <c r="H99">
         <f t="shared" si="17"/>
-        <v>8.4606779876689906</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="26"/>
-        <v>19.405224742360069</v>
-      </c>
-      <c r="F99">
+        <v>305.29571858362505</v>
+      </c>
+      <c r="I99">
         <f t="shared" si="18"/>
-        <v>2.1151694969172476</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="23"/>
-        <v>7632.3929645906264</v>
-      </c>
-      <c r="H99">
+        <v>33.277233325615128</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="19"/>
-        <v>305.29571858362505</v>
-      </c>
-      <c r="I99">
+        <v>76.323929645906261</v>
+      </c>
+      <c r="K99">
         <f t="shared" si="20"/>
-        <v>33.277233325615128</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="21"/>
-        <v>76.323929645906261</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="22"/>
         <v>8.3193083314037821</v>
       </c>
     </row>
@@ -5128,43 +5177,43 @@
         <v>43998</v>
       </c>
       <c r="B100">
-        <f t="shared" si="24"/>
+        <f>B99*(1-($M$5/($P$2+$Q$2)))</f>
         <v>2472.369374582172</v>
       </c>
       <c r="C100">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>74.17108123746516</v>
       </c>
       <c r="D100">
+        <f t="shared" si="15"/>
+        <v>8.084647854883702</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="22"/>
+        <v>18.54277030936629</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="16"/>
+        <v>2.0211619637209255</v>
+      </c>
+      <c r="G100">
+        <f>G99*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>7523.3587793821889</v>
+      </c>
+      <c r="H100">
         <f t="shared" si="17"/>
-        <v>8.084647854883702</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="26"/>
-        <v>18.54277030936629</v>
-      </c>
-      <c r="F100">
+        <v>300.93435117528759</v>
+      </c>
+      <c r="I100">
         <f t="shared" si="18"/>
-        <v>2.0211619637209255</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="23"/>
-        <v>7523.3587793821889</v>
-      </c>
-      <c r="H100">
+        <v>32.801844278106344</v>
+      </c>
+      <c r="J100">
         <f t="shared" si="19"/>
-        <v>300.93435117528759</v>
-      </c>
-      <c r="I100">
+        <v>75.233587793821897</v>
+      </c>
+      <c r="K100">
         <f t="shared" si="20"/>
-        <v>32.801844278106344</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="21"/>
-        <v>75.233587793821897</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="22"/>
         <v>8.200461069526586</v>
       </c>
     </row>
@@ -5173,43 +5222,43 @@
         <v>43999</v>
       </c>
       <c r="B101">
-        <f t="shared" si="24"/>
+        <f>B100*(1-($M$5/($P$2+$Q$2)))</f>
         <v>2362.4862912674089</v>
       </c>
       <c r="C101">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>70.874588738022268</v>
       </c>
       <c r="D101">
+        <f t="shared" si="15"/>
+        <v>7.7253301724444272</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="22"/>
+        <v>17.718647184505567</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="16"/>
+        <v>1.9313325431111068</v>
+      </c>
+      <c r="G101">
+        <f>G100*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>7415.8822253910148</v>
+      </c>
+      <c r="H101">
         <f t="shared" si="17"/>
-        <v>7.7253301724444272</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="26"/>
-        <v>17.718647184505567</v>
-      </c>
-      <c r="F101">
+        <v>296.63528901564058</v>
+      </c>
+      <c r="I101">
         <f t="shared" si="18"/>
-        <v>1.9313325431111068</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="23"/>
-        <v>7415.8822253910148</v>
-      </c>
-      <c r="H101">
+        <v>32.333246502704824</v>
+      </c>
+      <c r="J101">
         <f t="shared" si="19"/>
-        <v>296.63528901564058</v>
-      </c>
-      <c r="I101">
+        <v>74.158822253910145</v>
+      </c>
+      <c r="K101">
         <f t="shared" si="20"/>
-        <v>32.333246502704824</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="21"/>
-        <v>74.158822253910145</v>
-      </c>
-      <c r="K101">
-        <f t="shared" si="22"/>
         <v>8.0833116256762061</v>
       </c>
     </row>
@@ -5218,43 +5267,43 @@
         <v>44000</v>
       </c>
       <c r="B102">
-        <f t="shared" si="24"/>
+        <f>B101*(1-($M$5/($P$2+$Q$2)))</f>
         <v>2257.4869005444129</v>
       </c>
       <c r="C102">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>67.724607016332385</v>
       </c>
       <c r="D102">
+        <f t="shared" si="15"/>
+        <v>7.3819821647802302</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="22"/>
+        <v>16.931151754083096</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="16"/>
+        <v>1.8454955411950575</v>
+      </c>
+      <c r="G102">
+        <f>G101*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>7309.9410507425719</v>
+      </c>
+      <c r="H102">
         <f t="shared" si="17"/>
-        <v>7.3819821647802302</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="26"/>
-        <v>16.931151754083096</v>
-      </c>
-      <c r="F102">
+        <v>292.39764202970287</v>
+      </c>
+      <c r="I102">
         <f t="shared" si="18"/>
-        <v>1.8454955411950575</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="23"/>
-        <v>7309.9410507425719</v>
-      </c>
-      <c r="H102">
+        <v>31.871342981237611</v>
+      </c>
+      <c r="J102">
         <f t="shared" si="19"/>
-        <v>292.39764202970287</v>
-      </c>
-      <c r="I102">
+        <v>73.099410507425716</v>
+      </c>
+      <c r="K102">
         <f t="shared" si="20"/>
-        <v>31.871342981237611</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="21"/>
-        <v>73.099410507425716</v>
-      </c>
-      <c r="K102">
-        <f t="shared" si="22"/>
         <v>7.9678357453094026</v>
       </c>
     </row>
@@ -5263,43 +5312,43 @@
         <v>44001</v>
       </c>
       <c r="B103">
-        <f t="shared" si="24"/>
+        <f>B102*(1-($M$5/($P$2+$Q$2)))</f>
         <v>2157.1541494091057</v>
       </c>
       <c r="C103">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>64.714624482273166</v>
       </c>
       <c r="D103">
+        <f t="shared" si="15"/>
+        <v>7.0538940685677751</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="22"/>
+        <v>16.178656120568291</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="16"/>
+        <v>1.7634735171419438</v>
+      </c>
+      <c r="G103">
+        <f>G102*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>7205.5133214462494</v>
+      </c>
+      <c r="H103">
         <f t="shared" si="17"/>
-        <v>7.0538940685677751</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="26"/>
-        <v>16.178656120568291</v>
-      </c>
-      <c r="F103">
+        <v>288.22053285785</v>
+      </c>
+      <c r="I103">
         <f t="shared" si="18"/>
-        <v>1.7634735171419438</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="23"/>
-        <v>7205.5133214462494</v>
-      </c>
-      <c r="H103">
+        <v>31.416038081505651</v>
+      </c>
+      <c r="J103">
         <f t="shared" si="19"/>
-        <v>288.22053285785</v>
-      </c>
-      <c r="I103">
+        <v>72.055133214462501</v>
+      </c>
+      <c r="K103">
         <f t="shared" si="20"/>
-        <v>31.416038081505651</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="21"/>
-        <v>72.055133214462501</v>
-      </c>
-      <c r="K103">
-        <f t="shared" si="22"/>
         <v>7.8540095203764126</v>
       </c>
     </row>
@@ -5308,43 +5357,43 @@
         <v>44002</v>
       </c>
       <c r="B104">
-        <f t="shared" si="24"/>
+        <f>B103*(1-($M$5/($P$2+$Q$2)))</f>
         <v>2061.2806316575898</v>
       </c>
       <c r="C104">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>61.838418949727689</v>
       </c>
       <c r="D104">
+        <f t="shared" si="15"/>
+        <v>6.7403876655203181</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="22"/>
+        <v>15.459604737431922</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="16"/>
+        <v>1.6850969163800795</v>
+      </c>
+      <c r="G104">
+        <f>G103*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>7102.5774168541602</v>
+      </c>
+      <c r="H104">
         <f t="shared" si="17"/>
-        <v>6.7403876655203181</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="26"/>
-        <v>15.459604737431922</v>
-      </c>
-      <c r="F104">
+        <v>284.10309667416641</v>
+      </c>
+      <c r="I104">
         <f t="shared" si="18"/>
-        <v>1.6850969163800795</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="23"/>
-        <v>7102.5774168541602</v>
-      </c>
-      <c r="H104">
+        <v>30.967237537484138</v>
+      </c>
+      <c r="J104">
         <f t="shared" si="19"/>
-        <v>284.10309667416641</v>
-      </c>
-      <c r="I104">
+        <v>71.025774168541602</v>
+      </c>
+      <c r="K104">
         <f t="shared" si="20"/>
-        <v>30.967237537484138</v>
-      </c>
-      <c r="J104">
-        <f t="shared" si="21"/>
-        <v>71.025774168541602</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="22"/>
         <v>7.7418093843710345</v>
       </c>
     </row>
@@ -5353,43 +5402,43 @@
         <v>44003</v>
       </c>
       <c r="B105">
-        <f t="shared" si="24"/>
+        <f>B104*(1-($M$5/($P$2+$Q$2)))</f>
         <v>1969.6681591394747</v>
       </c>
       <c r="C105">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>59.090044774184236</v>
       </c>
       <c r="D105">
+        <f t="shared" si="15"/>
+        <v>6.4408148803860819</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="22"/>
+        <v>14.772511193546059</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="16"/>
+        <v>1.6102037200965205</v>
+      </c>
+      <c r="G105">
+        <f>G104*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>7001.1120251848151</v>
+      </c>
+      <c r="H105">
         <f t="shared" si="17"/>
-        <v>6.4408148803860819</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="26"/>
-        <v>14.772511193546059</v>
-      </c>
-      <c r="F105">
+        <v>280.04448100739262</v>
+      </c>
+      <c r="I105">
         <f t="shared" si="18"/>
-        <v>1.6102037200965205</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="23"/>
-        <v>7001.1120251848151</v>
-      </c>
-      <c r="H105">
+        <v>30.524848429805797</v>
+      </c>
+      <c r="J105">
         <f t="shared" si="19"/>
-        <v>280.04448100739262</v>
-      </c>
-      <c r="I105">
+        <v>70.011120251848155</v>
+      </c>
+      <c r="K105">
         <f t="shared" si="20"/>
-        <v>30.524848429805797</v>
-      </c>
-      <c r="J105">
-        <f t="shared" si="21"/>
-        <v>70.011120251848155</v>
-      </c>
-      <c r="K105">
-        <f t="shared" si="22"/>
         <v>7.6312121074514492</v>
       </c>
     </row>
@@ -5398,43 +5447,43 @@
         <v>44004</v>
       </c>
       <c r="B106">
-        <f t="shared" si="24"/>
+        <f>B105*(1-($M$5/($P$2+$Q$2)))</f>
         <v>1882.1273520666093</v>
       </c>
       <c r="C106">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>56.463820561998276</v>
       </c>
       <c r="D106">
+        <f t="shared" si="15"/>
+        <v>6.154556441257812</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="22"/>
+        <v>14.115955140499569</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="16"/>
+        <v>1.538639110314453</v>
+      </c>
+      <c r="G106">
+        <f>G105*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>6901.0961391107467</v>
+      </c>
+      <c r="H106">
         <f t="shared" si="17"/>
-        <v>6.154556441257812</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="26"/>
-        <v>14.115955140499569</v>
-      </c>
-      <c r="F106">
+        <v>276.04384556442989</v>
+      </c>
+      <c r="I106">
         <f t="shared" si="18"/>
-        <v>1.538639110314453</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="23"/>
-        <v>6901.0961391107467</v>
-      </c>
-      <c r="H106">
+        <v>30.088779166522858</v>
+      </c>
+      <c r="J106">
         <f t="shared" si="19"/>
-        <v>276.04384556442989</v>
-      </c>
-      <c r="I106">
+        <v>69.010961391107472</v>
+      </c>
+      <c r="K106">
         <f t="shared" si="20"/>
-        <v>30.088779166522858</v>
-      </c>
-      <c r="J106">
-        <f t="shared" si="21"/>
-        <v>69.010961391107472</v>
-      </c>
-      <c r="K106">
-        <f t="shared" si="22"/>
         <v>7.5221947916307146</v>
       </c>
     </row>
@@ -5443,43 +5492,43 @@
         <v>44005</v>
       </c>
       <c r="B107">
-        <f t="shared" si="24"/>
+        <f>B106*(1-($M$5/($P$2+$Q$2)))</f>
         <v>1798.4772475303157</v>
       </c>
       <c r="C107">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>53.954317425909473</v>
       </c>
       <c r="D107">
+        <f t="shared" si="15"/>
+        <v>5.8810205994241329</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="22"/>
+        <v>13.488579356477368</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="16"/>
+        <v>1.4702551498560332</v>
+      </c>
+      <c r="G107">
+        <f>G106*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>6802.5090514091653</v>
+      </c>
+      <c r="H107">
         <f t="shared" si="17"/>
-        <v>5.8810205994241329</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="26"/>
-        <v>13.488579356477368</v>
-      </c>
-      <c r="F107">
+        <v>272.10036205636663</v>
+      </c>
+      <c r="I107">
         <f t="shared" si="18"/>
-        <v>1.4702551498560332</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="23"/>
-        <v>6802.5090514091653</v>
-      </c>
-      <c r="H107">
+        <v>29.658939464143963</v>
+      </c>
+      <c r="J107">
         <f t="shared" si="19"/>
-        <v>272.10036205636663</v>
-      </c>
-      <c r="I107">
+        <v>68.025090514091659</v>
+      </c>
+      <c r="K107">
         <f t="shared" si="20"/>
-        <v>29.658939464143963</v>
-      </c>
-      <c r="J107">
-        <f t="shared" si="21"/>
-        <v>68.025090514091659</v>
-      </c>
-      <c r="K107">
-        <f t="shared" si="22"/>
         <v>7.4147348660359906</v>
       </c>
     </row>
@@ -5488,43 +5537,43 @@
         <v>44006</v>
       </c>
       <c r="B108">
-        <f t="shared" si="24"/>
+        <f>B107*(1-($M$5/($P$2+$Q$2)))</f>
         <v>1718.5449254178573</v>
       </c>
       <c r="C108">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>51.556347762535715</v>
       </c>
       <c r="D108">
+        <f t="shared" si="15"/>
+        <v>5.6196419061163931</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="22"/>
+        <v>12.889086940633929</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="16"/>
+        <v>1.4049104765290983</v>
+      </c>
+      <c r="G108">
+        <f>G107*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>6705.3303506747488</v>
+      </c>
+      <c r="H108">
         <f t="shared" si="17"/>
-        <v>5.6196419061163931</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="26"/>
-        <v>12.889086940633929</v>
-      </c>
-      <c r="F108">
+        <v>268.21321402698993</v>
+      </c>
+      <c r="I108">
         <f t="shared" si="18"/>
-        <v>1.4049104765290983</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="23"/>
-        <v>6705.3303506747488</v>
-      </c>
-      <c r="H108">
+        <v>29.235240328941902</v>
+      </c>
+      <c r="J108">
         <f t="shared" si="19"/>
-        <v>268.21321402698993</v>
-      </c>
-      <c r="I108">
+        <v>67.053303506747483</v>
+      </c>
+      <c r="K108">
         <f t="shared" si="20"/>
-        <v>29.235240328941902</v>
-      </c>
-      <c r="J108">
-        <f t="shared" si="21"/>
-        <v>67.053303506747483</v>
-      </c>
-      <c r="K108">
-        <f t="shared" si="22"/>
         <v>7.3088100822354756</v>
       </c>
     </row>
@@ -5533,43 +5582,43 @@
         <v>44007</v>
       </c>
       <c r="B109">
-        <f t="shared" si="24"/>
+        <f>B108*(1-($M$5/($P$2+$Q$2)))</f>
         <v>1642.1651509548415</v>
       </c>
       <c r="C109">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>49.264954528645241</v>
       </c>
       <c r="D109">
+        <f t="shared" si="15"/>
+        <v>5.3698800436223308</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="22"/>
+        <v>12.31623863216131</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="16"/>
+        <v>1.3424700109055827</v>
+      </c>
+      <c r="G109">
+        <f>G108*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>6609.5399170936817</v>
+      </c>
+      <c r="H109">
         <f t="shared" si="17"/>
-        <v>5.3698800436223308</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="26"/>
-        <v>12.31623863216131</v>
-      </c>
-      <c r="F109">
+        <v>264.38159668374726</v>
+      </c>
+      <c r="I109">
         <f t="shared" si="18"/>
-        <v>1.3424700109055827</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="23"/>
-        <v>6609.5399170936817</v>
-      </c>
-      <c r="H109">
+        <v>28.817594038528451</v>
+      </c>
+      <c r="J109">
         <f t="shared" si="19"/>
-        <v>264.38159668374726</v>
-      </c>
-      <c r="I109">
+        <v>66.095399170936815</v>
+      </c>
+      <c r="K109">
         <f t="shared" si="20"/>
-        <v>28.817594038528451</v>
-      </c>
-      <c r="J109">
-        <f t="shared" si="21"/>
-        <v>66.095399170936815</v>
-      </c>
-      <c r="K109">
-        <f t="shared" si="22"/>
         <v>7.2043985096321128</v>
       </c>
     </row>
@@ -5578,43 +5627,43 @@
         <v>44008</v>
       </c>
       <c r="B110">
-        <f t="shared" si="24"/>
+        <f>B109*(1-($M$5/($P$2+$Q$2)))</f>
         <v>1569.1800331346265</v>
       </c>
       <c r="C110">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>47.075400994038795</v>
       </c>
       <c r="D110">
+        <f t="shared" si="15"/>
+        <v>5.1312187083502288</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="22"/>
+        <v>11.768850248509699</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="16"/>
+        <v>1.2828046770875572</v>
+      </c>
+      <c r="G110">
+        <f>G109*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>6515.1179182780579</v>
+      </c>
+      <c r="H110">
         <f t="shared" si="17"/>
-        <v>5.1312187083502288</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="26"/>
-        <v>11.768850248509699</v>
-      </c>
-      <c r="F110">
+        <v>260.60471673112232</v>
+      </c>
+      <c r="I110">
         <f t="shared" si="18"/>
-        <v>1.2828046770875572</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="23"/>
-        <v>6515.1179182780579</v>
-      </c>
-      <c r="H110">
+        <v>28.405914123692334</v>
+      </c>
+      <c r="J110">
         <f t="shared" si="19"/>
-        <v>260.60471673112232</v>
-      </c>
-      <c r="I110">
+        <v>65.151179182780581</v>
+      </c>
+      <c r="K110">
         <f t="shared" si="20"/>
-        <v>28.405914123692334</v>
-      </c>
-      <c r="J110">
-        <f t="shared" si="21"/>
-        <v>65.151179182780581</v>
-      </c>
-      <c r="K110">
-        <f t="shared" si="22"/>
         <v>7.1014785309230835</v>
       </c>
     </row>
@@ -5623,43 +5672,43 @@
         <v>44009</v>
       </c>
       <c r="B111">
-        <f t="shared" si="24"/>
+        <f>B110*(1-($M$5/($P$2+$Q$2)))</f>
         <v>1499.4386983286431</v>
       </c>
       <c r="C111">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>44.98316094985929</v>
       </c>
       <c r="D111">
+        <f t="shared" si="15"/>
+        <v>4.9031645435346629</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="22"/>
+        <v>11.245790237464822</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="16"/>
+        <v>1.2257911358836657</v>
+      </c>
+      <c r="G111">
+        <f>G110*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>6422.0448051598005</v>
+      </c>
+      <c r="H111">
         <f t="shared" si="17"/>
-        <v>4.9031645435346629</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="26"/>
-        <v>11.245790237464822</v>
-      </c>
-      <c r="F111">
+        <v>256.88179220639205</v>
+      </c>
+      <c r="I111">
         <f t="shared" si="18"/>
-        <v>1.2257911358836657</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="23"/>
-        <v>6422.0448051598005</v>
-      </c>
-      <c r="H111">
+        <v>28.000115350496735</v>
+      </c>
+      <c r="J111">
         <f t="shared" si="19"/>
-        <v>256.88179220639205</v>
-      </c>
-      <c r="I111">
+        <v>64.220448051598012</v>
+      </c>
+      <c r="K111">
         <f t="shared" si="20"/>
-        <v>28.000115350496735</v>
-      </c>
-      <c r="J111">
-        <f t="shared" si="21"/>
-        <v>64.220448051598012</v>
-      </c>
-      <c r="K111">
-        <f t="shared" si="22"/>
         <v>7.0000288376241837</v>
       </c>
     </row>
@@ -5668,43 +5717,43 @@
         <v>44010</v>
       </c>
       <c r="B112">
-        <f t="shared" si="24"/>
+        <f>B111*(1-($M$5/($P$2+$Q$2)))</f>
         <v>1432.7969784029258</v>
       </c>
       <c r="C112">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>42.983909352087771</v>
       </c>
       <c r="D112">
+        <f t="shared" si="15"/>
+        <v>4.6852461193775667</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="22"/>
+        <v>10.745977338021943</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="16"/>
+        <v>1.1713115298443917</v>
+      </c>
+      <c r="G112">
+        <f>G111*(1-($M$6/($P$3+$Q$3)))</f>
+        <v>6330.3013079432321</v>
+      </c>
+      <c r="H112">
         <f t="shared" si="17"/>
-        <v>4.6852461193775667</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="26"/>
-        <v>10.745977338021943</v>
-      </c>
-      <c r="F112">
+        <v>253.2120523177293</v>
+      </c>
+      <c r="I112">
         <f t="shared" si="18"/>
-        <v>1.1713115298443917</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="23"/>
-        <v>6330.3013079432321</v>
-      </c>
-      <c r="H112">
+        <v>27.600113702632495</v>
+      </c>
+      <c r="J112">
         <f t="shared" si="19"/>
-        <v>253.2120523177293</v>
-      </c>
-      <c r="I112">
+        <v>63.303013079432326</v>
+      </c>
+      <c r="K112">
         <f t="shared" si="20"/>
-        <v>27.600113702632495</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="21"/>
-        <v>63.303013079432326</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="22"/>
         <v>6.9000284256581237</v>
       </c>
     </row>
@@ -5729,19 +5778,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/Scenario pasient-data.xlsx
+++ b/Scenario pasient-data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\There\PycharmProjects\ABM---hospital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909E3295-6512-4E17-9E8D-C252B544FBF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927D7D38-D7D3-4251-A041-5464FB7C1A9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3D08B538-DB8C-4D4E-BD62-B68A7ED57B49}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{3D08B538-DB8C-4D4E-BD62-B68A7ED57B49}"/>
   </bookViews>
   <sheets>
     <sheet name="Prediksjon sykdomstall" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Ark1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Populasjon</t>
   </si>
@@ -138,14 +139,24 @@
   <si>
     <t xml:space="preserve">andel sykehus </t>
   </si>
+  <si>
+    <t xml:space="preserve">Andel sykehus </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -160,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -168,14 +179,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,8 +531,8 @@
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1723,7 @@
         <v>7.0529804847467457</v>
       </c>
       <c r="G23">
-        <f>G22*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" ref="G23:G54" si="11">G22*(1-($M$6/($P$3+$Q$3)))</f>
         <v>22781.424027594861</v>
       </c>
       <c r="H23">
@@ -1750,7 +1788,7 @@
         <v>7.9150114328824595</v>
       </c>
       <c r="G24">
-        <f>G23*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="11"/>
         <v>22455.975112914937</v>
       </c>
       <c r="H24">
@@ -1815,7 +1853,7 @@
         <v>8.8824017191236493</v>
       </c>
       <c r="G25">
-        <f>G24*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="11"/>
         <v>22135.175468444726</v>
       </c>
       <c r="H25">
@@ -1860,7 +1898,7 @@
         <v>9.9680285959054267</v>
       </c>
       <c r="G26">
-        <f>G25*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="11"/>
         <v>21818.958676038375</v>
       </c>
       <c r="H26">
@@ -1909,7 +1947,7 @@
         <v>11.186343202071647</v>
       </c>
       <c r="G27">
-        <f>G26*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="11"/>
         <v>21507.259266380686</v>
       </c>
       <c r="H27">
@@ -1954,7 +1992,7 @@
         <v>12.553562926769294</v>
       </c>
       <c r="G28">
-        <f>G27*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="11"/>
         <v>21200.012705432393</v>
       </c>
       <c r="H28">
@@ -1999,7 +2037,7 @@
         <v>14.087887284485541</v>
       </c>
       <c r="G29">
-        <f>G28*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="11"/>
         <v>20897.155381069075</v>
       </c>
       <c r="H29">
@@ -2044,7 +2082,7 @@
         <v>15.809740174811553</v>
       </c>
       <c r="G30">
-        <f>G29*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="11"/>
         <v>20598.624589910945</v>
       </c>
       <c r="H30">
@@ -2089,7 +2127,7 @@
         <v>17.742041751732966</v>
       </c>
       <c r="G31">
-        <f>G30*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="11"/>
         <v>20304.358524340791</v>
       </c>
       <c r="H31">
@@ -2134,7 +2172,7 @@
         <v>19.910513521389213</v>
       </c>
       <c r="G32">
-        <f>G31*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="11"/>
         <v>20014.296259707353</v>
       </c>
       <c r="H32">
@@ -2179,7 +2217,7 @@
         <v>22.344020729559006</v>
       </c>
       <c r="G33">
-        <f>G32*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="11"/>
         <v>19728.377741711534</v>
       </c>
       <c r="H33">
@@ -2208,7 +2246,7 @@
         <v>30672.729781657628</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C65" si="11">B34*$S$2</f>
+        <f t="shared" ref="C34:C65" si="12">B34*$S$2</f>
         <v>920.18189344972882</v>
       </c>
       <c r="D34">
@@ -2216,7 +2254,7 @@
         <v>100.29982638602044</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="12">C34*$T$2</f>
+        <f t="shared" ref="E34:E65" si="13">C34*$T$2</f>
         <v>230.0454733624322</v>
       </c>
       <c r="F34">
@@ -2224,7 +2262,7 @@
         <v>25.07495659650511</v>
       </c>
       <c r="G34">
-        <f>G33*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="11"/>
         <v>19446.5437739728</v>
       </c>
       <c r="H34">
@@ -2253,23 +2291,23 @@
         <v>34421.618977193561</v>
       </c>
       <c r="C35">
+        <f t="shared" si="12"/>
+        <v>1032.6485693158068</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>112.55869405542293</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="13"/>
+        <v>258.16214232895169</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>28.139673513855733</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="11"/>
-        <v>1032.6485693158068</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>112.55869405542293</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="12"/>
-        <v>258.16214232895169</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="3"/>
-        <v>28.139673513855733</v>
-      </c>
-      <c r="G35">
-        <f>G34*(1-($M$6/($P$3+$Q$3)))</f>
         <v>19168.736005773189</v>
       </c>
       <c r="H35">
@@ -2298,23 +2336,23 @@
         <v>38628.705741072772</v>
       </c>
       <c r="C36">
+        <f t="shared" si="12"/>
+        <v>1158.8611722321832</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>126.31586777330797</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="13"/>
+        <v>289.7152930580458</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>31.578966943326993</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="11"/>
-        <v>1158.8611722321832</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>126.31586777330797</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="12"/>
-        <v>289.7152930580458</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="3"/>
-        <v>31.578966943326993</v>
-      </c>
-      <c r="G36">
-        <f>G35*(1-($M$6/($P$3+$Q$3)))</f>
         <v>18894.896919976429</v>
       </c>
       <c r="H36">
@@ -2343,23 +2381,23 @@
         <v>43349.991998315003</v>
       </c>
       <c r="C37">
+        <f t="shared" si="12"/>
+        <v>1300.49975994945</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>141.75447383449006</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="13"/>
+        <v>325.1249399873625</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>35.438618458622514</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="11"/>
-        <v>1300.49975994945</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>141.75447383449006</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="12"/>
-        <v>325.1249399873625</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="3"/>
-        <v>35.438618458622514</v>
-      </c>
-      <c r="G37">
-        <f>G36*(1-($M$6/($P$3+$Q$3)))</f>
         <v>18624.969821119623</v>
       </c>
       <c r="H37">
@@ -2384,27 +2422,27 @@
         <v>43936</v>
       </c>
       <c r="B38">
-        <f>B37*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" ref="B38:B69" si="14">B37*(1-($M$5/($P$2+$Q$2)))</f>
         <v>41423.325687278782</v>
       </c>
       <c r="C38">
+        <f t="shared" si="12"/>
+        <v>1242.6997706183633</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>135.4542749974016</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="13"/>
+        <v>310.67494265459084</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>33.863568749350399</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="11"/>
-        <v>1242.6997706183633</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>135.4542749974016</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="12"/>
-        <v>310.67494265459084</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
-        <v>33.863568749350399</v>
-      </c>
-      <c r="G38">
-        <f>G37*(1-($M$6/($P$3+$Q$3)))</f>
         <v>18358.898823675059</v>
       </c>
       <c r="H38">
@@ -2429,27 +2467,27 @@
         <v>43937</v>
       </c>
       <c r="B39">
-        <f>B38*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>39582.288990066394</v>
       </c>
       <c r="C39">
+        <f t="shared" si="12"/>
+        <v>1187.4686697019918</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>129.43408499751709</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="13"/>
+        <v>296.86716742549794</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>32.358521249379272</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="11"/>
-        <v>1187.4686697019918</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>129.43408499751709</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="12"/>
-        <v>296.86716742549794</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="3"/>
-        <v>32.358521249379272</v>
-      </c>
-      <c r="G39">
-        <f>G38*(1-($M$6/($P$3+$Q$3)))</f>
         <v>18096.628840479701</v>
       </c>
       <c r="H39">
@@ -2474,27 +2512,27 @@
         <v>43938</v>
       </c>
       <c r="B40">
-        <f>B39*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>37823.076146063446</v>
       </c>
       <c r="C40">
+        <f t="shared" si="12"/>
+        <v>1134.6922843819034</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>123.68145899762747</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="13"/>
+        <v>283.67307109547585</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>30.920364749406868</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="11"/>
-        <v>1134.6922843819034</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>123.68145899762747</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="12"/>
-        <v>283.67307109547585</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="3"/>
-        <v>30.920364749406868</v>
-      </c>
-      <c r="G40">
-        <f>G39*(1-($M$6/($P$3+$Q$3)))</f>
         <v>17838.105571329994</v>
       </c>
       <c r="H40">
@@ -2519,27 +2557,27 @@
         <v>43939</v>
       </c>
       <c r="B41">
-        <f>B40*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>36142.050539571741</v>
       </c>
       <c r="C41">
+        <f t="shared" si="12"/>
+        <v>1084.2615161871522</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>118.18450526439959</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="13"/>
+        <v>271.06537904678805</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>29.546126316099897</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="11"/>
-        <v>1084.2615161871522</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="2"/>
-        <v>118.18450526439959</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="12"/>
-        <v>271.06537904678805</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="3"/>
-        <v>29.546126316099897</v>
-      </c>
-      <c r="G41">
-        <f>G40*(1-($M$6/($P$3+$Q$3)))</f>
         <v>17583.275491739565</v>
       </c>
       <c r="H41">
@@ -2564,27 +2602,27 @@
         <v>43940</v>
       </c>
       <c r="B42">
-        <f>B41*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>34535.737182257442</v>
       </c>
       <c r="C42">
+        <f t="shared" si="12"/>
+        <v>1036.0721154677233</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>112.93186058598184</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="13"/>
+        <v>259.01802886693082</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>28.232965146495459</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="11"/>
-        <v>1036.0721154677233</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
-        <v>112.93186058598184</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="12"/>
-        <v>259.01802886693082</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="3"/>
-        <v>28.232965146495459</v>
-      </c>
-      <c r="G42">
-        <f>G41*(1-($M$6/($P$3+$Q$3)))</f>
         <v>17332.085841857574</v>
       </c>
       <c r="H42">
@@ -2609,27 +2647,27 @@
         <v>43941</v>
       </c>
       <c r="B43">
-        <f>B42*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>33000.815529712672</v>
       </c>
       <c r="C43">
+        <f t="shared" si="12"/>
+        <v>990.02446589138015</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>107.91266678216043</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="13"/>
+        <v>247.50611647284504</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>26.978166695540107</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="11"/>
-        <v>990.02446589138015</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
-        <v>107.91266678216043</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="12"/>
-        <v>247.50611647284504</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="3"/>
-        <v>26.978166695540107</v>
-      </c>
-      <c r="G43">
-        <f>G42*(1-($M$6/($P$3+$Q$3)))</f>
         <v>17084.484615545323</v>
       </c>
       <c r="H43">
@@ -2654,27 +2692,27 @@
         <v>43942</v>
       </c>
       <c r="B44">
-        <f>B43*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>31534.112617281</v>
       </c>
       <c r="C44">
+        <f t="shared" si="12"/>
+        <v>946.02337851842992</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>103.11654825850886</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="13"/>
+        <v>236.50584462960748</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>25.779137064627214</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="11"/>
-        <v>946.02337851842992</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
-        <v>103.11654825850886</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="12"/>
-        <v>236.50584462960748</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="3"/>
-        <v>25.779137064627214</v>
-      </c>
-      <c r="G44">
-        <f>G43*(1-($M$6/($P$3+$Q$3)))</f>
         <v>16840.420549608963</v>
       </c>
       <c r="H44">
@@ -2699,27 +2737,27 @@
         <v>43943</v>
       </c>
       <c r="B45">
-        <f>B44*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>30132.596500957403</v>
       </c>
       <c r="C45">
+        <f t="shared" si="12"/>
+        <v>903.97789502872206</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>98.533590558130697</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="13"/>
+        <v>225.99447375718051</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>24.633397639532674</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="11"/>
-        <v>903.97789502872206</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="2"/>
-        <v>98.533590558130697</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="12"/>
-        <v>225.99447375718051</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="3"/>
-        <v>24.633397639532674</v>
-      </c>
-      <c r="G45">
-        <f>G44*(1-($M$6/($P$3+$Q$3)))</f>
         <v>16599.84311318598</v>
       </c>
       <c r="H45">
@@ -2744,27 +2782,27 @@
         <v>43944</v>
       </c>
       <c r="B46">
-        <f>B45*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>28793.369989803741</v>
       </c>
       <c r="C46">
+        <f t="shared" si="12"/>
+        <v>863.80109969411217</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>94.154319866658227</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="13"/>
+        <v>215.95027492352804</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>23.538579966664557</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="11"/>
-        <v>863.80109969411217</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="2"/>
-        <v>94.154319866658227</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="12"/>
-        <v>215.95027492352804</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="3"/>
-        <v>23.538579966664557</v>
-      </c>
-      <c r="G46">
-        <f>G45*(1-($M$6/($P$3+$Q$3)))</f>
         <v>16362.702497283324</v>
       </c>
       <c r="H46">
@@ -2789,27 +2827,27 @@
         <v>43945</v>
       </c>
       <c r="B47">
-        <f>B46*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>27513.664656923575</v>
       </c>
       <c r="C47">
+        <f t="shared" si="12"/>
+        <v>825.40993970770717</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>89.969683428140087</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="13"/>
+        <v>206.35248492692679</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>22.492420857035022</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="11"/>
-        <v>825.40993970770717</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="2"/>
-        <v>89.969683428140087</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="12"/>
-        <v>206.35248492692679</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="3"/>
-        <v>22.492420857035022</v>
-      </c>
-      <c r="G47">
-        <f>G46*(1-($M$6/($P$3+$Q$3)))</f>
         <v>16128.949604464991</v>
       </c>
       <c r="H47">
@@ -2834,27 +2872,27 @@
         <v>43946</v>
       </c>
       <c r="B48">
-        <f>B47*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>26290.835116615861</v>
       </c>
       <c r="C48">
+        <f t="shared" si="12"/>
+        <v>788.72505349847575</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>85.971030831333863</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="13"/>
+        <v>197.18126337461894</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>21.492757707833466</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="11"/>
-        <v>788.72505349847575</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="2"/>
-        <v>85.971030831333863</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="12"/>
-        <v>197.18126337461894</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="3"/>
-        <v>21.492757707833466</v>
-      </c>
-      <c r="G48">
-        <f>G47*(1-($M$6/($P$3+$Q$3)))</f>
         <v>15898.536038686922</v>
       </c>
       <c r="H48">
@@ -2879,27 +2917,27 @@
         <v>43947</v>
       </c>
       <c r="B49">
-        <f>B48*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>25122.35355587738</v>
       </c>
       <c r="C49">
+        <f t="shared" si="12"/>
+        <v>753.67060667632143</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>82.150096127719038</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="13"/>
+        <v>188.41765166908036</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>20.53752403192976</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="11"/>
-        <v>753.67060667632143</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="2"/>
-        <v>82.150096127719038</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="12"/>
-        <v>188.41765166908036</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="3"/>
-        <v>20.53752403192976</v>
-      </c>
-      <c r="G49">
-        <f>G48*(1-($M$6/($P$3+$Q$3)))</f>
         <v>15671.414095277109</v>
       </c>
       <c r="H49">
@@ -2924,27 +2962,27 @@
         <v>43948</v>
       </c>
       <c r="B50">
-        <f>B49*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>24005.804508949499</v>
       </c>
       <c r="C50">
+        <f t="shared" si="12"/>
+        <v>720.17413526848497</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>78.498980744264856</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="13"/>
+        <v>180.04353381712124</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>19.624745186066214</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="11"/>
-        <v>720.17413526848497</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="2"/>
-        <v>78.498980744264856</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="12"/>
-        <v>180.04353381712124</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="3"/>
-        <v>19.624745186066214</v>
-      </c>
-      <c r="G50">
-        <f>G49*(1-($M$6/($P$3+$Q$3)))</f>
         <v>15447.536751058866</v>
       </c>
       <c r="H50">
@@ -2969,27 +3007,27 @@
         <v>43949</v>
       </c>
       <c r="B51">
-        <f>B50*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>22938.879864107301</v>
       </c>
       <c r="C51">
+        <f t="shared" si="12"/>
+        <v>688.16639592321894</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>75.010137155630858</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="13"/>
+        <v>172.04159898080474</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>18.752534288907714</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="11"/>
-        <v>688.16639592321894</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="2"/>
-        <v>75.010137155630858</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="12"/>
-        <v>172.04159898080474</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="3"/>
-        <v>18.752534288907714</v>
-      </c>
-      <c r="G51">
-        <f>G50*(1-($M$6/($P$3+$Q$3)))</f>
         <v>15226.857654615169</v>
       </c>
       <c r="H51">
@@ -3014,27 +3052,27 @@
         <v>43950</v>
       </c>
       <c r="B52">
-        <f>B51*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>21919.374092369198</v>
       </c>
       <c r="C52">
+        <f t="shared" si="12"/>
+        <v>657.58122277107589</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>71.676353282047273</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="13"/>
+        <v>164.39530569276897</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>17.919088320511818</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="11"/>
-        <v>657.58122277107589</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="2"/>
-        <v>71.676353282047273</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="12"/>
-        <v>164.39530569276897</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="3"/>
-        <v>17.919088320511818</v>
-      </c>
-      <c r="G52">
-        <f>G51*(1-($M$6/($P$3+$Q$3)))</f>
         <v>15009.331116692096</v>
       </c>
       <c r="H52">
@@ -3059,27 +3097,27 @@
         <v>43951</v>
       </c>
       <c r="B53">
-        <f>B52*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>20945.179688263903</v>
       </c>
       <c r="C53">
+        <f t="shared" si="12"/>
+        <v>628.35539064791703</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>68.490737580622962</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="13"/>
+        <v>157.08884766197926</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>17.122684395155741</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="11"/>
-        <v>628.35539064791703</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="2"/>
-        <v>68.490737580622962</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="12"/>
-        <v>157.08884766197926</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="3"/>
-        <v>17.122684395155741</v>
-      </c>
-      <c r="G53">
-        <f>G52*(1-($M$6/($P$3+$Q$3)))</f>
         <v>14794.912100739351</v>
       </c>
       <c r="H53">
@@ -3104,27 +3142,27 @@
         <v>43952</v>
       </c>
       <c r="B54">
-        <f>B53*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>20014.282813229951</v>
       </c>
       <c r="C54">
+        <f t="shared" si="12"/>
+        <v>600.42848439689851</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>65.446704799261937</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="13"/>
+        <v>150.10712109922463</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>16.361676199815484</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="11"/>
-        <v>600.42848439689851</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="2"/>
-        <v>65.446704799261937</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="12"/>
-        <v>150.10712109922463</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="3"/>
-        <v>16.361676199815484</v>
-      </c>
-      <c r="G54">
-        <f>G53*(1-($M$6/($P$3+$Q$3)))</f>
         <v>14583.556213585933</v>
       </c>
       <c r="H54">
@@ -3149,11 +3187,11 @@
         <v>43953</v>
       </c>
       <c r="B55">
-        <f>B54*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>19124.759132641953</v>
       </c>
       <c r="C55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>573.74277397925857</v>
       </c>
       <c r="D55">
@@ -3161,7 +3199,7 @@
         <v>62.537962363739183</v>
       </c>
       <c r="E55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>143.43569349481464</v>
       </c>
       <c r="F55">
@@ -3169,7 +3207,7 @@
         <v>15.634490590934796</v>
       </c>
       <c r="G55">
-        <f>G54*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" ref="G55:G86" si="15">G54*(1-($M$6/($P$3+$Q$3)))</f>
         <v>14375.219696248991</v>
       </c>
       <c r="H55">
@@ -3194,11 +3232,11 @@
         <v>43954</v>
       </c>
       <c r="B56">
-        <f>B55*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>18274.769837857868</v>
       </c>
       <c r="C56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>548.24309513573598</v>
       </c>
       <c r="D56">
@@ -3206,7 +3244,7 @@
         <v>59.758497369795222</v>
       </c>
       <c r="E56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>137.060773783934</v>
       </c>
       <c r="F56">
@@ -3214,7 +3252,7 @@
         <v>14.939624342448806</v>
       </c>
       <c r="G56">
-        <f>G55*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="15"/>
         <v>14169.859414874007</v>
       </c>
       <c r="H56">
@@ -3239,11 +3277,11 @@
         <v>43955</v>
       </c>
       <c r="B57">
-        <f>B56*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>17462.557845064184</v>
       </c>
       <c r="C57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>523.8767353519255</v>
       </c>
       <c r="D57">
@@ -3251,7 +3289,7 @@
         <v>57.102564153359879</v>
       </c>
       <c r="E57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>130.96918383798138</v>
       </c>
       <c r="F57">
@@ -3259,7 +3297,7 @@
         <v>14.27564103833997</v>
       </c>
       <c r="G57">
-        <f>G56*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="15"/>
         <v>13967.432851804379</v>
       </c>
       <c r="H57">
@@ -3284,11 +3322,11 @@
         <v>43956</v>
       </c>
       <c r="B58">
-        <f>B57*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>16686.444163061333</v>
       </c>
       <c r="C58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>500.59332489183998</v>
       </c>
       <c r="D58">
@@ -3296,7 +3334,7 @@
         <v>54.564672413210559</v>
       </c>
       <c r="E58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>125.14833122296</v>
       </c>
       <c r="F58">
@@ -3304,7 +3342,7 @@
         <v>13.64116810330264</v>
       </c>
       <c r="G58">
-        <f>G57*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="15"/>
         <v>13767.898096778603</v>
       </c>
       <c r="H58">
@@ -3329,11 +3367,11 @@
         <v>43957</v>
       </c>
       <c r="B59">
-        <f>B58*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>15944.82442248083</v>
       </c>
       <c r="C59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>478.34473267442485</v>
       </c>
       <c r="D59">
@@ -3341,7 +3379,7 @@
         <v>52.139575861512306</v>
       </c>
       <c r="E59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>119.58618316860621</v>
       </c>
       <c r="F59">
@@ -3349,7 +3387,7 @@
         <v>13.034893965378076</v>
       </c>
       <c r="G59">
-        <f>G58*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="15"/>
         <v>13571.213838253196</v>
       </c>
       <c r="H59">
@@ -3374,11 +3412,11 @@
         <v>43958</v>
       </c>
       <c r="B60">
-        <f>B59*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>15236.16555925946</v>
       </c>
       <c r="C60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>457.08496677778379</v>
       </c>
       <c r="D60">
@@ -3386,7 +3424,7 @@
         <v>49.822261378778435</v>
       </c>
       <c r="E60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>114.27124169444595</v>
       </c>
       <c r="F60">
@@ -3394,7 +3432,7 @@
         <v>12.455565344694609</v>
       </c>
       <c r="G60">
-        <f>G59*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="15"/>
         <v>13377.339354849579</v>
       </c>
       <c r="H60">
@@ -3419,11 +3457,11 @@
         <v>43959</v>
       </c>
       <c r="B61">
-        <f>B60*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>14559.002645514596</v>
       </c>
       <c r="C61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>436.77007936543788</v>
       </c>
       <c r="D61">
@@ -3431,7 +3469,7 @@
         <v>47.607938650832729</v>
       </c>
       <c r="E61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>109.19251984135947</v>
       </c>
       <c r="F61">
@@ -3439,7 +3477,7 @@
         <v>11.901984662708182</v>
       </c>
       <c r="G61">
-        <f>G60*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="15"/>
         <v>13186.234506923156</v>
       </c>
       <c r="H61">
@@ -3467,11 +3505,11 @@
         <v>43960</v>
       </c>
       <c r="B62">
-        <f>B61*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>13911.935861269503</v>
       </c>
       <c r="C62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>417.35807583808509</v>
       </c>
       <c r="D62">
@@ -3479,7 +3517,7 @@
         <v>45.492030266351271</v>
       </c>
       <c r="E62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>104.33951895952127</v>
       </c>
       <c r="F62">
@@ -3487,7 +3525,7 @@
         <v>11.373007566587818</v>
       </c>
       <c r="G62">
-        <f>G61*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="15"/>
         <v>12997.859728252826</v>
       </c>
       <c r="H62">
@@ -3512,11 +3550,11 @@
         <v>43961</v>
       </c>
       <c r="B63">
-        <f>B62*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>13293.627600768637</v>
       </c>
       <c r="C63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>398.80882802305911</v>
       </c>
       <c r="D63">
@@ -3524,7 +3562,7 @@
         <v>43.47016225451344</v>
       </c>
       <c r="E63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>99.702207005764777</v>
       </c>
       <c r="F63">
@@ -3532,7 +3570,7 @@
         <v>10.86754056362836</v>
       </c>
       <c r="G63">
-        <f>G62*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="15"/>
         <v>12812.176017849215</v>
       </c>
       <c r="H63">
@@ -3557,11 +3595,11 @@
         <v>43962</v>
       </c>
       <c r="B64">
-        <f>B63*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>12702.799707401144</v>
       </c>
       <c r="C64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>381.08399122203429</v>
       </c>
       <c r="D64">
@@ -3569,7 +3607,7 @@
         <v>41.538155043201733</v>
       </c>
       <c r="E64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>95.270997805508571</v>
       </c>
       <c r="F64">
@@ -3577,7 +3615,7 @@
         <v>10.384538760800433</v>
       </c>
       <c r="G64">
-        <f>G63*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="15"/>
         <v>12629.14493187994</v>
       </c>
       <c r="H64">
@@ -3602,11 +3640,11 @@
         <v>43963</v>
       </c>
       <c r="B65">
-        <f>B64*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>12138.230831516648</v>
       </c>
       <c r="C65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>364.14692494549945</v>
       </c>
       <c r="D65">
@@ -3614,7 +3652,7 @@
         <v>39.692014819059438</v>
       </c>
       <c r="E65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>91.036731236374862</v>
       </c>
       <c r="F65">
@@ -3622,7 +3660,7 @@
         <v>9.9230037047648594</v>
       </c>
       <c r="G65">
-        <f>G64*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="15"/>
         <v>12448.728575710227</v>
       </c>
       <c r="H65">
@@ -3647,11 +3685,11 @@
         <v>43964</v>
       </c>
       <c r="B66">
-        <f>B65*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>11598.753905671465</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C97" si="13">B66*$S$2</f>
+        <f t="shared" ref="C66:C97" si="16">B66*$S$2</f>
         <v>347.96261717014391</v>
       </c>
       <c r="D66">
@@ -3659,7 +3697,7 @@
         <v>37.927925271545689</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E97" si="14">C66*$T$2</f>
+        <f t="shared" ref="E66:E97" si="17">C66*$T$2</f>
         <v>86.990654292535979</v>
       </c>
       <c r="F66">
@@ -3667,7 +3705,7 @@
         <v>9.4819813178864223</v>
       </c>
       <c r="G66">
-        <f>G65*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="15"/>
         <v>12270.889596057224</v>
       </c>
       <c r="H66">
@@ -3692,43 +3730,43 @@
         <v>43965</v>
       </c>
       <c r="B67">
-        <f>B66*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>11083.253732086067</v>
       </c>
       <c r="C67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>332.49761196258197</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D112" si="15">C67*0.109</f>
+        <f t="shared" ref="D67:D112" si="18">C67*0.109</f>
         <v>36.242239703921435</v>
       </c>
       <c r="E67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>83.124402990645493</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F112" si="16">E67*0.109</f>
+        <f t="shared" ref="F67:F112" si="19">E67*0.109</f>
         <v>9.0605599259803586</v>
       </c>
       <c r="G67">
-        <f>G66*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="15"/>
         <v>12095.591173256407</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H112" si="17">G67*$S$3</f>
+        <f t="shared" ref="H67:H112" si="20">G67*$S$3</f>
         <v>483.8236469302563</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I112" si="18">H67*0.109</f>
+        <f t="shared" ref="I67:I112" si="21">H67*0.109</f>
         <v>52.736777515397939</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J112" si="19">H67*$T$3</f>
+        <f t="shared" ref="J67:J112" si="22">H67*$T$3</f>
         <v>120.95591173256408</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K112" si="20">J67*0.109</f>
+        <f t="shared" ref="K67:K112" si="23">J67*0.109</f>
         <v>13.184194378849485</v>
       </c>
     </row>
@@ -3737,43 +3775,43 @@
         <v>43966</v>
       </c>
       <c r="B68">
-        <f>B67*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>10590.664677326686</v>
       </c>
       <c r="C68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>317.71994031980057</v>
       </c>
       <c r="D68">
+        <f t="shared" si="18"/>
+        <v>34.631473494858263</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="17"/>
+        <v>79.429985079950143</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="19"/>
+        <v>8.6578683737145656</v>
+      </c>
+      <c r="G68">
         <f t="shared" si="15"/>
-        <v>34.631473494858263</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="14"/>
-        <v>79.429985079950143</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="16"/>
-        <v>8.6578683737145656</v>
-      </c>
-      <c r="G68">
-        <f>G67*(1-($M$6/($P$3+$Q$3)))</f>
         <v>11922.797013638459</v>
       </c>
       <c r="H68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>476.91188054553839</v>
       </c>
       <c r="I68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>51.983394979463682</v>
       </c>
       <c r="J68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>119.2279701363846</v>
       </c>
       <c r="K68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>12.995848744865921</v>
       </c>
     </row>
@@ -3782,43 +3820,43 @@
         <v>43967</v>
       </c>
       <c r="B69">
-        <f>B68*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="14"/>
         <v>10119.968469445501</v>
       </c>
       <c r="C69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>303.59905408336499</v>
       </c>
       <c r="D69">
+        <f t="shared" si="18"/>
+        <v>33.092296895086783</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="17"/>
+        <v>75.899763520841248</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="19"/>
+        <v>8.2730742237716957</v>
+      </c>
+      <c r="G69">
         <f t="shared" si="15"/>
-        <v>33.092296895086783</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="14"/>
-        <v>75.899763520841248</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="16"/>
-        <v>8.2730742237716957</v>
-      </c>
-      <c r="G69">
-        <f>G68*(1-($M$6/($P$3+$Q$3)))</f>
         <v>11752.471342015053</v>
       </c>
       <c r="H69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>470.09885368060213</v>
       </c>
       <c r="I69">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>51.240775051185629</v>
       </c>
       <c r="J69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>117.52471342015053</v>
       </c>
       <c r="K69">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>12.810193762796407</v>
       </c>
     </row>
@@ -3827,43 +3865,43 @@
         <v>43968</v>
       </c>
       <c r="B70">
-        <f>B69*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" ref="B70:B101" si="24">B69*(1-($M$5/($P$2+$Q$2)))</f>
         <v>9670.192093025702</v>
       </c>
       <c r="C70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>290.10576279077105</v>
       </c>
       <c r="D70">
+        <f t="shared" si="18"/>
+        <v>31.621528144194045</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="17"/>
+        <v>72.526440697692763</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="19"/>
+        <v>7.9053820360485112</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="15"/>
-        <v>31.621528144194045</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="14"/>
-        <v>72.526440697692763</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="16"/>
-        <v>7.9053820360485112</v>
-      </c>
-      <c r="G70">
-        <f>G69*(1-($M$6/($P$3+$Q$3)))</f>
         <v>11584.578894271981</v>
       </c>
       <c r="H70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>463.38315577087923</v>
       </c>
       <c r="I70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>50.508763979025836</v>
       </c>
       <c r="J70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>115.84578894271981</v>
       </c>
       <c r="K70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>12.627190994756459</v>
       </c>
     </row>
@@ -3872,43 +3910,43 @@
         <v>43969</v>
       </c>
       <c r="B71">
-        <f>B70*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>9240.4057777801154</v>
       </c>
       <c r="C71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>277.21217333340343</v>
       </c>
       <c r="D71">
+        <f t="shared" si="18"/>
+        <v>30.216126893340974</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="17"/>
+        <v>69.303043333350857</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="19"/>
+        <v>7.5540317233352434</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="15"/>
-        <v>30.216126893340974</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="14"/>
-        <v>69.303043333350857</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="16"/>
-        <v>7.5540317233352434</v>
-      </c>
-      <c r="G71">
-        <f>G70*(1-($M$6/($P$3+$Q$3)))</f>
         <v>11419.084910068095</v>
       </c>
       <c r="H71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>456.7633964027238</v>
       </c>
       <c r="I71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>49.787210207896891</v>
       </c>
       <c r="J71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>114.19084910068095</v>
       </c>
       <c r="K71">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>12.446802551974223</v>
       </c>
     </row>
@@ -3917,43 +3955,43 @@
         <v>43970</v>
       </c>
       <c r="B72">
-        <f>B71*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>8829.7210765454438</v>
       </c>
       <c r="C72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>264.8916322963633</v>
       </c>
       <c r="D72">
+        <f t="shared" si="18"/>
+        <v>28.8731879203036</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="17"/>
+        <v>66.222908074090824</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="19"/>
+        <v>7.2182969800759</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="15"/>
-        <v>28.8731879203036</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="14"/>
-        <v>66.222908074090824</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="16"/>
-        <v>7.2182969800759</v>
-      </c>
-      <c r="G72">
-        <f>G71*(1-($M$6/($P$3+$Q$3)))</f>
         <v>11255.955125638551</v>
       </c>
       <c r="H72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>450.23820502554207</v>
       </c>
       <c r="I72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>49.075964347784087</v>
       </c>
       <c r="J72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>112.55955125638552</v>
       </c>
       <c r="K72">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>12.268991086946022</v>
       </c>
     </row>
@@ -3962,43 +4000,43 @@
         <v>43971</v>
       </c>
       <c r="B73">
-        <f>B72*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>8437.2890286989805</v>
       </c>
       <c r="C73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>253.11867086096942</v>
       </c>
       <c r="D73">
+        <f t="shared" si="18"/>
+        <v>27.589935123845667</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="17"/>
+        <v>63.279667715242354</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="19"/>
+        <v>6.8974837809614167</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="15"/>
-        <v>27.589935123845667</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="14"/>
-        <v>63.279667715242354</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="16"/>
-        <v>6.8974837809614167</v>
-      </c>
-      <c r="G73">
-        <f>G72*(1-($M$6/($P$3+$Q$3)))</f>
         <v>11095.155766700858</v>
       </c>
       <c r="H73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>443.80623066803435</v>
       </c>
       <c r="I73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>48.374879142815743</v>
       </c>
       <c r="J73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>110.95155766700859</v>
       </c>
       <c r="K73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>12.093719785703936</v>
       </c>
     </row>
@@ -4007,43 +4045,43 @@
         <v>43972</v>
       </c>
       <c r="B74">
-        <f>B73*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>8062.298405201248</v>
       </c>
       <c r="C74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>241.86895215603744</v>
       </c>
       <c r="D74">
+        <f t="shared" si="18"/>
+        <v>26.363715785008079</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="17"/>
+        <v>60.467238039009359</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="19"/>
+        <v>6.5909289462520197</v>
+      </c>
+      <c r="G74">
         <f t="shared" si="15"/>
-        <v>26.363715785008079</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="14"/>
-        <v>60.467238039009359</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="16"/>
-        <v>6.5909289462520197</v>
-      </c>
-      <c r="G74">
-        <f>G73*(1-($M$6/($P$3+$Q$3)))</f>
         <v>10936.653541462276</v>
       </c>
       <c r="H74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>437.46614165849104</v>
       </c>
       <c r="I74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>47.683809440775526</v>
       </c>
       <c r="J74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>109.36653541462276</v>
       </c>
       <c r="K74">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>11.920952360193882</v>
       </c>
     </row>
@@ -4052,43 +4090,43 @@
         <v>43973</v>
       </c>
       <c r="B75">
-        <f>B74*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>7703.9740316367488</v>
       </c>
       <c r="C75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>231.11922094910244</v>
       </c>
       <c r="D75">
+        <f t="shared" si="18"/>
+        <v>25.191995083452166</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="17"/>
+        <v>57.77980523727561</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="19"/>
+        <v>6.2979987708630416</v>
+      </c>
+      <c r="G75">
         <f t="shared" si="15"/>
-        <v>25.191995083452166</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="14"/>
-        <v>57.77980523727561</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="16"/>
-        <v>6.2979987708630416</v>
-      </c>
-      <c r="G75">
-        <f>G74*(1-($M$6/($P$3+$Q$3)))</f>
         <v>10780.415633727102</v>
       </c>
       <c r="H75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>431.2166253490841</v>
       </c>
       <c r="I75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>47.002612163050166</v>
       </c>
       <c r="J75">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>107.80415633727102</v>
       </c>
       <c r="K75">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>11.750653040762542</v>
       </c>
     </row>
@@ -4097,43 +4135,43 @@
         <v>43974</v>
       </c>
       <c r="B76">
-        <f>B75*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>7361.5751857862269</v>
       </c>
       <c r="C76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>220.84725557358681</v>
       </c>
       <c r="D76">
+        <f t="shared" si="18"/>
+        <v>24.072350857520963</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="17"/>
+        <v>55.211813893396702</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="19"/>
+        <v>6.0180877143802407</v>
+      </c>
+      <c r="G76">
         <f t="shared" si="15"/>
-        <v>24.072350857520963</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="14"/>
-        <v>55.211813893396702</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="16"/>
-        <v>6.0180877143802407</v>
-      </c>
-      <c r="G76">
-        <f>G75*(1-($M$6/($P$3+$Q$3)))</f>
         <v>10626.40969610243</v>
       </c>
       <c r="H76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>425.05638784409717</v>
       </c>
       <c r="I76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>46.331146275006589</v>
       </c>
       <c r="J76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>106.26409696102429</v>
       </c>
       <c r="K76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>11.582786568751647</v>
       </c>
     </row>
@@ -4142,43 +4180,43 @@
         <v>43975</v>
       </c>
       <c r="B77">
-        <f>B76*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>7034.3940664179509</v>
       </c>
       <c r="C77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>211.03182199253851</v>
       </c>
       <c r="D77">
+        <f t="shared" si="18"/>
+        <v>23.002468597186699</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="17"/>
+        <v>52.757955498134628</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="19"/>
+        <v>5.7506171492966747</v>
+      </c>
+      <c r="G77">
         <f t="shared" si="15"/>
-        <v>23.002468597186699</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="14"/>
-        <v>52.757955498134628</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="16"/>
-        <v>5.7506171492966747</v>
-      </c>
-      <c r="G77">
-        <f>G76*(1-($M$6/($P$3+$Q$3)))</f>
         <v>10474.603843300967</v>
       </c>
       <c r="H77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>418.98415373203869</v>
       </c>
       <c r="I77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>45.669272756792218</v>
       </c>
       <c r="J77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>104.74603843300967</v>
       </c>
       <c r="K77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>11.417318189198054</v>
       </c>
     </row>
@@ -4187,43 +4225,43 @@
         <v>43976</v>
       </c>
       <c r="B78">
-        <f>B77*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>6721.7543301327087</v>
       </c>
       <c r="C78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>201.65262990398125</v>
       </c>
       <c r="D78">
+        <f t="shared" si="18"/>
+        <v>21.980136659533954</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="17"/>
+        <v>50.413157475995312</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="19"/>
+        <v>5.4950341648834886</v>
+      </c>
+      <c r="G78">
         <f t="shared" si="15"/>
-        <v>21.980136659533954</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="14"/>
-        <v>50.413157475995312</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="16"/>
-        <v>5.4950341648834886</v>
-      </c>
-      <c r="G78">
-        <f>G77*(1-($M$6/($P$3+$Q$3)))</f>
         <v>10324.966645539525</v>
       </c>
       <c r="H78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>412.99866582158103</v>
       </c>
       <c r="I78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>45.016854574552333</v>
       </c>
       <c r="J78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>103.24966645539526</v>
       </c>
       <c r="K78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>11.254213643638083</v>
       </c>
     </row>
@@ -4232,43 +4270,43 @@
         <v>43977</v>
       </c>
       <c r="B79">
-        <f>B78*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>6423.009693237922</v>
       </c>
       <c r="C79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>192.69029079713766</v>
       </c>
       <c r="D79">
+        <f t="shared" si="18"/>
+        <v>21.003241696888004</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="17"/>
+        <v>48.172572699284416</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="19"/>
+        <v>5.2508104242220011</v>
+      </c>
+      <c r="G79">
         <f t="shared" si="15"/>
-        <v>21.003241696888004</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="14"/>
-        <v>48.172572699284416</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="16"/>
-        <v>5.2508104242220011</v>
-      </c>
-      <c r="G79">
-        <f>G78*(1-($M$6/($P$3+$Q$3)))</f>
         <v>10177.467122031818</v>
       </c>
       <c r="H79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>407.09868488127273</v>
       </c>
       <c r="I79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>44.373756652058731</v>
       </c>
       <c r="J79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>101.77467122031818</v>
       </c>
       <c r="K79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>11.093439163014683</v>
       </c>
     </row>
@@ -4277,43 +4315,43 @@
         <v>43978</v>
       </c>
       <c r="B80">
-        <f>B79*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>6137.5425957606813</v>
       </c>
       <c r="C80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>184.12627787282042</v>
       </c>
       <c r="D80">
+        <f t="shared" si="18"/>
+        <v>20.069764288137428</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="17"/>
+        <v>46.031569468205106</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="19"/>
+        <v>5.017441072034357</v>
+      </c>
+      <c r="G80">
         <f t="shared" si="15"/>
-        <v>20.069764288137428</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="14"/>
-        <v>46.031569468205106</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="16"/>
-        <v>5.017441072034357</v>
-      </c>
-      <c r="G80">
-        <f>G79*(1-($M$6/($P$3+$Q$3)))</f>
         <v>10032.07473457422</v>
       </c>
       <c r="H80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>401.28298938296882</v>
       </c>
       <c r="I80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>43.739845842743598</v>
       </c>
       <c r="J80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>100.32074734574221</v>
       </c>
       <c r="K80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10.9349614606859</v>
       </c>
     </row>
@@ -4322,43 +4360,43 @@
         <v>43979</v>
       </c>
       <c r="B81">
-        <f>B80*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>5864.7629248379844</v>
       </c>
       <c r="C81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>175.94288774513953</v>
       </c>
       <c r="D81">
+        <f t="shared" si="18"/>
+        <v>19.17777476422021</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="17"/>
+        <v>43.985721936284882</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="19"/>
+        <v>4.7944436910550525</v>
+      </c>
+      <c r="G81">
         <f t="shared" si="15"/>
-        <v>19.17777476422021</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="14"/>
-        <v>43.985721936284882</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="16"/>
-        <v>4.7944436910550525</v>
-      </c>
-      <c r="G81">
-        <f>G80*(1-($M$6/($P$3+$Q$3)))</f>
         <v>9888.7593812231607</v>
       </c>
       <c r="H81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>395.55037524892646</v>
       </c>
       <c r="I81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>43.11499090213298</v>
       </c>
       <c r="J81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>98.887593812231614</v>
       </c>
       <c r="K81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10.778747725533245</v>
       </c>
     </row>
@@ -4367,43 +4405,43 @@
         <v>43980</v>
       </c>
       <c r="B82">
-        <f>B81*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>5604.1067948451855</v>
       </c>
       <c r="C82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>168.12320384535556</v>
       </c>
       <c r="D82">
+        <f t="shared" si="18"/>
+        <v>18.325429219143757</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="17"/>
+        <v>42.03080096133889</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="19"/>
+        <v>4.5813573047859393</v>
+      </c>
+      <c r="G82">
         <f t="shared" si="15"/>
-        <v>18.325429219143757</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="14"/>
-        <v>42.03080096133889</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="16"/>
-        <v>4.5813573047859393</v>
-      </c>
-      <c r="G82">
-        <f>G81*(1-($M$6/($P$3+$Q$3)))</f>
         <v>9747.4913900628308</v>
       </c>
       <c r="H82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>389.89965560251323</v>
       </c>
       <c r="I82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>42.49906246067394</v>
       </c>
       <c r="J82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>97.474913900628309</v>
       </c>
       <c r="K82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10.624765615168485</v>
       </c>
     </row>
@@ -4412,43 +4450,43 @@
         <v>43981</v>
       </c>
       <c r="B83">
-        <f>B82*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>5355.035381740955</v>
       </c>
       <c r="C83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>160.65106145222865</v>
       </c>
       <c r="D83">
+        <f t="shared" si="18"/>
+        <v>17.510965698292921</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="17"/>
+        <v>40.162765363057161</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="19"/>
+        <v>4.3777414245732302</v>
+      </c>
+      <c r="G83">
         <f t="shared" si="15"/>
-        <v>17.510965698292921</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="14"/>
-        <v>40.162765363057161</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="16"/>
-        <v>4.3777414245732302</v>
-      </c>
-      <c r="G83">
-        <f>G82*(1-($M$6/($P$3+$Q$3)))</f>
         <v>9608.2415130619338</v>
       </c>
       <c r="H83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>384.32966052247735</v>
       </c>
       <c r="I83">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>41.891932996950032</v>
       </c>
       <c r="J83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>96.082415130619339</v>
       </c>
       <c r="K83">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10.472983249237508</v>
       </c>
     </row>
@@ -4457,43 +4495,43 @@
         <v>43982</v>
       </c>
       <c r="B84">
-        <f>B83*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>5117.033809219135</v>
       </c>
       <c r="C84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>153.51101427657406</v>
       </c>
       <c r="D84">
+        <f t="shared" si="18"/>
+        <v>16.732700556146572</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="17"/>
+        <v>38.377753569143515</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="19"/>
+        <v>4.183175139036643</v>
+      </c>
+      <c r="G84">
         <f t="shared" si="15"/>
-        <v>16.732700556146572</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="14"/>
-        <v>38.377753569143515</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="16"/>
-        <v>4.183175139036643</v>
-      </c>
-      <c r="G84">
-        <f>G83*(1-($M$6/($P$3+$Q$3)))</f>
         <v>9470.9809200181917</v>
       </c>
       <c r="H84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>378.83923680072769</v>
       </c>
       <c r="I84">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>41.293476811279319</v>
       </c>
       <c r="J84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>94.709809200181923</v>
       </c>
       <c r="K84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10.32336920281983</v>
       </c>
     </row>
@@ -4502,43 +4540,43 @@
         <v>43983</v>
       </c>
       <c r="B85">
-        <f>B84*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>4889.6100843649519</v>
       </c>
       <c r="C85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>146.68830253094856</v>
       </c>
       <c r="D85">
+        <f t="shared" si="18"/>
+        <v>15.989024975873393</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="17"/>
+        <v>36.67207563273714</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="19"/>
+        <v>3.9972562439683483</v>
+      </c>
+      <c r="G85">
         <f t="shared" si="15"/>
-        <v>15.989024975873393</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="14"/>
-        <v>36.67207563273714</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="16"/>
-        <v>3.9972562439683483</v>
-      </c>
-      <c r="G85">
-        <f>G84*(1-($M$6/($P$3+$Q$3)))</f>
         <v>9335.6811925893617</v>
       </c>
       <c r="H85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>373.42724770357449</v>
       </c>
       <c r="I85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>40.70356999968962</v>
       </c>
       <c r="J85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>93.356811925893624</v>
       </c>
       <c r="K85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10.175892499922405</v>
       </c>
     </row>
@@ -4547,43 +4585,43 @@
         <v>43984</v>
       </c>
       <c r="B86">
-        <f>B85*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>4672.2940806153983</v>
       </c>
       <c r="C86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>140.16882241846196</v>
       </c>
       <c r="D86">
+        <f t="shared" si="18"/>
+        <v>15.278401643612353</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="17"/>
+        <v>35.042205604615489</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="19"/>
+        <v>3.8196004109030883</v>
+      </c>
+      <c r="G86">
         <f t="shared" si="15"/>
-        <v>15.278401643612353</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="14"/>
-        <v>35.042205604615489</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="16"/>
-        <v>3.8196004109030883</v>
-      </c>
-      <c r="G86">
-        <f>G85*(1-($M$6/($P$3+$Q$3)))</f>
         <v>9202.3143184095134</v>
       </c>
       <c r="H86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>368.09257273638053</v>
       </c>
       <c r="I86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>40.12209042826548</v>
       </c>
       <c r="J86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>92.023143184095133</v>
       </c>
       <c r="K86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10.03052260706637</v>
       </c>
     </row>
@@ -4592,43 +4630,43 @@
         <v>43985</v>
       </c>
       <c r="B87">
-        <f>B86*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>4464.6365659213807</v>
       </c>
       <c r="C87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>133.93909697764141</v>
       </c>
       <c r="D87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>14.599361570562914</v>
       </c>
       <c r="E87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>33.484774244410353</v>
       </c>
       <c r="F87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3.6498403926407286</v>
       </c>
       <c r="G87">
-        <f>G86*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" ref="G87:G112" si="25">G86*(1-($M$6/($P$3+$Q$3)))</f>
         <v>9070.8526852893774</v>
       </c>
       <c r="H87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>362.83410741157508</v>
       </c>
       <c r="I87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>39.548917707861683</v>
       </c>
       <c r="J87">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>90.708526852893769</v>
       </c>
       <c r="K87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9.8872294269654208</v>
       </c>
     </row>
@@ -4637,43 +4675,43 @@
         <v>43986</v>
       </c>
       <c r="B88">
-        <f>B87*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>4266.2082741026525</v>
       </c>
       <c r="C88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>127.98624822307957</v>
       </c>
       <c r="D88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>13.950501056315673</v>
       </c>
       <c r="E88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>31.996562055769893</v>
       </c>
       <c r="F88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3.4876252640789183</v>
       </c>
       <c r="G88">
-        <f>G87*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="25"/>
         <v>8941.2690754995292</v>
       </c>
       <c r="H88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>357.65076301998118</v>
       </c>
       <c r="I88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>38.983933169177952</v>
       </c>
       <c r="J88">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>89.412690754995296</v>
       </c>
       <c r="K88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9.745983292294488</v>
       </c>
     </row>
@@ -4682,43 +4720,43 @@
         <v>43987</v>
       </c>
       <c r="B89">
-        <f>B88*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>4076.5990174758681</v>
       </c>
       <c r="C89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>122.29797052427604</v>
       </c>
       <c r="D89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>13.330478787146088</v>
       </c>
       <c r="E89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>30.57449263106901</v>
       </c>
       <c r="F89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3.332619696786522</v>
       </c>
       <c r="G89">
-        <f>G88*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="25"/>
         <v>8813.5366601352507</v>
       </c>
       <c r="H89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>352.54146640541006</v>
       </c>
       <c r="I89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>38.427019838189693</v>
       </c>
       <c r="J89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>88.135366601352516</v>
       </c>
       <c r="K89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9.6067549595474233</v>
       </c>
     </row>
@@ -4727,43 +4765,43 @@
         <v>43988</v>
       </c>
       <c r="B90">
-        <f>B89*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>3895.4168389213851</v>
       </c>
       <c r="C90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>116.86250516764154</v>
       </c>
       <c r="D90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>12.738013063272929</v>
       </c>
       <c r="E90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>29.215626291910386</v>
       </c>
       <c r="F90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3.1845032658182322</v>
       </c>
       <c r="G90">
-        <f>G89*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="25"/>
         <v>8687.6289935618897</v>
       </c>
       <c r="H90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>347.5051597424756</v>
       </c>
       <c r="I90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>37.878062411929839</v>
       </c>
       <c r="J90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>86.8762899356189</v>
       </c>
       <c r="K90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9.4695156029824599</v>
       </c>
     </row>
@@ -4772,43 +4810,43 @@
         <v>43989</v>
       </c>
       <c r="B91">
-        <f>B90*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>3722.2872016359902</v>
       </c>
       <c r="C91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>111.6686160490797</v>
       </c>
       <c r="D91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>12.171879149349687</v>
       </c>
       <c r="E91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>27.917154012269926</v>
       </c>
       <c r="F91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3.0429697873374217</v>
       </c>
       <c r="G91">
-        <f>G90*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="25"/>
         <v>8563.5200079395781</v>
       </c>
       <c r="H91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>342.54080031758315</v>
       </c>
       <c r="I91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>37.336947234616567</v>
       </c>
       <c r="J91">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>85.635200079395787</v>
       </c>
       <c r="K91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9.3342368086541416</v>
       </c>
     </row>
@@ -4817,43 +4855,43 @@
         <v>43990</v>
       </c>
       <c r="B92">
-        <f>B91*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>3556.8522148966131</v>
       </c>
       <c r="C92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>106.70556644689839</v>
       </c>
       <c r="D92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>11.630906742711923</v>
       </c>
       <c r="E92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>26.676391611724597</v>
       </c>
       <c r="F92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.9077266856779809</v>
       </c>
       <c r="G92">
-        <f>G91*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="25"/>
         <v>8441.1840078261557</v>
       </c>
       <c r="H92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>337.64736031304625</v>
       </c>
       <c r="I92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>36.803562274122044</v>
       </c>
       <c r="J92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>84.411840078261562</v>
       </c>
       <c r="K92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9.2008905685305109</v>
       </c>
     </row>
@@ -4862,43 +4900,43 @@
         <v>43991</v>
       </c>
       <c r="B93">
-        <f>B92*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>3398.7698942345414</v>
       </c>
       <c r="C93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>101.96309682703624</v>
       </c>
       <c r="D93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>11.113977554146951</v>
       </c>
       <c r="E93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25.49077420675906</v>
       </c>
       <c r="F93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.7784943885367377</v>
       </c>
       <c r="G93">
-        <f>G92*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="25"/>
         <v>8320.5956648572119</v>
       </c>
       <c r="H93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>332.82382659428851</v>
       </c>
       <c r="I93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>36.277797098777448</v>
       </c>
       <c r="J93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>83.205956648572126</v>
       </c>
       <c r="K93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9.069449274694362</v>
       </c>
     </row>
@@ -4907,43 +4945,43 @@
         <v>43992</v>
       </c>
       <c r="B94">
-        <f>B93*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>3247.713454490784</v>
       </c>
       <c r="C94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>97.431403634723523</v>
       </c>
       <c r="D94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>10.620022996184863</v>
       </c>
       <c r="E94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24.357850908680881</v>
       </c>
       <c r="F94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.6550057490462158</v>
       </c>
       <c r="G94">
-        <f>G93*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="25"/>
         <v>8201.7300125021102</v>
       </c>
       <c r="H94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>328.06920050008443</v>
       </c>
       <c r="I94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>35.759542854509206</v>
       </c>
       <c r="J94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>82.017300125021109</v>
       </c>
       <c r="K94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8.9398857136273016</v>
       </c>
     </row>
@@ -4952,43 +4990,43 @@
         <v>43993</v>
       </c>
       <c r="B95">
-        <f>B94*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>3103.3706342911937</v>
       </c>
       <c r="C95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>93.101119028735809</v>
       </c>
       <c r="D95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>10.148021974132202</v>
       </c>
       <c r="E95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>23.275279757183952</v>
       </c>
       <c r="F95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.5370054935330506</v>
       </c>
       <c r="G95">
-        <f>G94*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="25"/>
         <v>8084.5624408949379</v>
       </c>
       <c r="H95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>323.38249763579751</v>
       </c>
       <c r="I95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>35.248692242301928</v>
       </c>
       <c r="J95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>80.845624408949377</v>
       </c>
       <c r="K95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8.812173060575482</v>
       </c>
     </row>
@@ -4997,43 +5035,43 @@
         <v>43994</v>
       </c>
       <c r="B96">
-        <f>B95*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>2965.4430505449186</v>
       </c>
       <c r="C96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>88.963291516347553</v>
       </c>
       <c r="D96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9.6969987752818838</v>
       </c>
       <c r="E96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22.240822879086888</v>
       </c>
       <c r="F96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.424249693820471</v>
       </c>
       <c r="G96">
-        <f>G95*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="25"/>
         <v>7969.0686917392968</v>
       </c>
       <c r="H96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>318.76274766957187</v>
       </c>
       <c r="I96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>34.745139495983331</v>
       </c>
       <c r="J96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>79.690686917392966</v>
       </c>
       <c r="K96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8.6862848739958327</v>
       </c>
     </row>
@@ -5042,43 +5080,43 @@
         <v>43995</v>
       </c>
       <c r="B97">
-        <f>B96*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>2833.6455816318112</v>
       </c>
       <c r="C97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>85.009367448954336</v>
       </c>
       <c r="D97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9.266021051936022</v>
       </c>
       <c r="E97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21.252341862238584</v>
       </c>
       <c r="F97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.3165052629840055</v>
       </c>
       <c r="G97">
-        <f>G96*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="25"/>
         <v>7855.2248532858785</v>
       </c>
       <c r="H97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>314.20899413143513</v>
       </c>
       <c r="I97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>34.248780360326428</v>
       </c>
       <c r="J97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>78.552248532858783</v>
       </c>
       <c r="K97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8.5621950900816071</v>
       </c>
     </row>
@@ -5087,43 +5125,43 @@
         <v>43996</v>
       </c>
       <c r="B98">
-        <f>B97*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>2707.7057780037308</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:C112" si="21">B98*$S$2</f>
+        <f t="shared" ref="C98:C112" si="26">B98*$S$2</f>
         <v>81.231173340111923</v>
       </c>
       <c r="D98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>8.8541978940722004</v>
       </c>
       <c r="E98">
-        <f t="shared" ref="E98:E112" si="22">C98*$T$2</f>
+        <f t="shared" ref="E98:E112" si="27">C98*$T$2</f>
         <v>20.307793335027981</v>
       </c>
       <c r="F98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.2135494735180501</v>
       </c>
       <c r="G98">
-        <f>G97*(1-($M$6/($P$3+$Q$3)))</f>
+        <f t="shared" si="25"/>
         <v>7743.0073553817947</v>
       </c>
       <c r="H98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>309.72029421527179</v>
       </c>
       <c r="I98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>33.759512069464627</v>
       </c>
       <c r="J98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>77.430073553817948</v>
       </c>
       <c r="K98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8.4398780173661567</v>
       </c>
     </row>
@@ -5132,43 +5170,43 @@
         <v>43997</v>
       </c>
       <c r="B99">
-        <f>B98*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>2587.3632989813427</v>
       </c>
       <c r="C99">
+        <f t="shared" si="26"/>
+        <v>77.620898969440276</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="18"/>
+        <v>8.4606779876689906</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="27"/>
+        <v>19.405224742360069</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="19"/>
+        <v>2.1151694969172476</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="25"/>
+        <v>7632.3929645906264</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="20"/>
+        <v>305.29571858362505</v>
+      </c>
+      <c r="I99">
         <f t="shared" si="21"/>
-        <v>77.620898969440276</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="15"/>
-        <v>8.4606779876689906</v>
-      </c>
-      <c r="E99">
+        <v>33.277233325615128</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="22"/>
-        <v>19.405224742360069</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="16"/>
-        <v>2.1151694969172476</v>
-      </c>
-      <c r="G99">
-        <f>G98*(1-($M$6/($P$3+$Q$3)))</f>
-        <v>7632.3929645906264</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="17"/>
-        <v>305.29571858362505</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="18"/>
-        <v>33.277233325615128</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="19"/>
         <v>76.323929645906261</v>
       </c>
       <c r="K99">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8.3193083314037821</v>
       </c>
     </row>
@@ -5177,43 +5215,43 @@
         <v>43998</v>
       </c>
       <c r="B100">
-        <f>B99*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>2472.369374582172</v>
       </c>
       <c r="C100">
+        <f t="shared" si="26"/>
+        <v>74.17108123746516</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="18"/>
+        <v>8.084647854883702</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="27"/>
+        <v>18.54277030936629</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="19"/>
+        <v>2.0211619637209255</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="25"/>
+        <v>7523.3587793821889</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="20"/>
+        <v>300.93435117528759</v>
+      </c>
+      <c r="I100">
         <f t="shared" si="21"/>
-        <v>74.17108123746516</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="15"/>
-        <v>8.084647854883702</v>
-      </c>
-      <c r="E100">
+        <v>32.801844278106344</v>
+      </c>
+      <c r="J100">
         <f t="shared" si="22"/>
-        <v>18.54277030936629</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="16"/>
-        <v>2.0211619637209255</v>
-      </c>
-      <c r="G100">
-        <f>G99*(1-($M$6/($P$3+$Q$3)))</f>
-        <v>7523.3587793821889</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="17"/>
-        <v>300.93435117528759</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="18"/>
-        <v>32.801844278106344</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="19"/>
         <v>75.233587793821897</v>
       </c>
       <c r="K100">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8.200461069526586</v>
       </c>
     </row>
@@ -5222,43 +5260,43 @@
         <v>43999</v>
       </c>
       <c r="B101">
-        <f>B100*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="24"/>
         <v>2362.4862912674089</v>
       </c>
       <c r="C101">
+        <f t="shared" si="26"/>
+        <v>70.874588738022268</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="18"/>
+        <v>7.7253301724444272</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="27"/>
+        <v>17.718647184505567</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="19"/>
+        <v>1.9313325431111068</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="25"/>
+        <v>7415.8822253910148</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="20"/>
+        <v>296.63528901564058</v>
+      </c>
+      <c r="I101">
         <f t="shared" si="21"/>
-        <v>70.874588738022268</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="15"/>
-        <v>7.7253301724444272</v>
-      </c>
-      <c r="E101">
+        <v>32.333246502704824</v>
+      </c>
+      <c r="J101">
         <f t="shared" si="22"/>
-        <v>17.718647184505567</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="16"/>
-        <v>1.9313325431111068</v>
-      </c>
-      <c r="G101">
-        <f>G100*(1-($M$6/($P$3+$Q$3)))</f>
-        <v>7415.8822253910148</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="17"/>
-        <v>296.63528901564058</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="18"/>
-        <v>32.333246502704824</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="19"/>
         <v>74.158822253910145</v>
       </c>
       <c r="K101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8.0833116256762061</v>
       </c>
     </row>
@@ -5267,43 +5305,43 @@
         <v>44000</v>
       </c>
       <c r="B102">
-        <f>B101*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" ref="B102:B112" si="28">B101*(1-($M$5/($P$2+$Q$2)))</f>
         <v>2257.4869005444129</v>
       </c>
       <c r="C102">
+        <f t="shared" si="26"/>
+        <v>67.724607016332385</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="18"/>
+        <v>7.3819821647802302</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="27"/>
+        <v>16.931151754083096</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="19"/>
+        <v>1.8454955411950575</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="25"/>
+        <v>7309.9410507425719</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="20"/>
+        <v>292.39764202970287</v>
+      </c>
+      <c r="I102">
         <f t="shared" si="21"/>
-        <v>67.724607016332385</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="15"/>
-        <v>7.3819821647802302</v>
-      </c>
-      <c r="E102">
+        <v>31.871342981237611</v>
+      </c>
+      <c r="J102">
         <f t="shared" si="22"/>
-        <v>16.931151754083096</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="16"/>
-        <v>1.8454955411950575</v>
-      </c>
-      <c r="G102">
-        <f>G101*(1-($M$6/($P$3+$Q$3)))</f>
-        <v>7309.9410507425719</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="17"/>
-        <v>292.39764202970287</v>
-      </c>
-      <c r="I102">
-        <f t="shared" si="18"/>
-        <v>31.871342981237611</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="19"/>
         <v>73.099410507425716</v>
       </c>
       <c r="K102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.9678357453094026</v>
       </c>
     </row>
@@ -5312,43 +5350,43 @@
         <v>44001</v>
       </c>
       <c r="B103">
-        <f>B102*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="28"/>
         <v>2157.1541494091057</v>
       </c>
       <c r="C103">
+        <f t="shared" si="26"/>
+        <v>64.714624482273166</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="18"/>
+        <v>7.0538940685677751</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="27"/>
+        <v>16.178656120568291</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="19"/>
+        <v>1.7634735171419438</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="25"/>
+        <v>7205.5133214462494</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="20"/>
+        <v>288.22053285785</v>
+      </c>
+      <c r="I103">
         <f t="shared" si="21"/>
-        <v>64.714624482273166</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="15"/>
-        <v>7.0538940685677751</v>
-      </c>
-      <c r="E103">
+        <v>31.416038081505651</v>
+      </c>
+      <c r="J103">
         <f t="shared" si="22"/>
-        <v>16.178656120568291</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="16"/>
-        <v>1.7634735171419438</v>
-      </c>
-      <c r="G103">
-        <f>G102*(1-($M$6/($P$3+$Q$3)))</f>
-        <v>7205.5133214462494</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="17"/>
-        <v>288.22053285785</v>
-      </c>
-      <c r="I103">
-        <f t="shared" si="18"/>
-        <v>31.416038081505651</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="19"/>
         <v>72.055133214462501</v>
       </c>
       <c r="K103">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.8540095203764126</v>
       </c>
     </row>
@@ -5357,43 +5395,43 @@
         <v>44002</v>
       </c>
       <c r="B104">
-        <f>B103*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="28"/>
         <v>2061.2806316575898</v>
       </c>
       <c r="C104">
+        <f t="shared" si="26"/>
+        <v>61.838418949727689</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="18"/>
+        <v>6.7403876655203181</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="27"/>
+        <v>15.459604737431922</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="19"/>
+        <v>1.6850969163800795</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="25"/>
+        <v>7102.5774168541602</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="20"/>
+        <v>284.10309667416641</v>
+      </c>
+      <c r="I104">
         <f t="shared" si="21"/>
-        <v>61.838418949727689</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="15"/>
-        <v>6.7403876655203181</v>
-      </c>
-      <c r="E104">
+        <v>30.967237537484138</v>
+      </c>
+      <c r="J104">
         <f t="shared" si="22"/>
-        <v>15.459604737431922</v>
-      </c>
-      <c r="F104">
-        <f t="shared" si="16"/>
-        <v>1.6850969163800795</v>
-      </c>
-      <c r="G104">
-        <f>G103*(1-($M$6/($P$3+$Q$3)))</f>
-        <v>7102.5774168541602</v>
-      </c>
-      <c r="H104">
-        <f t="shared" si="17"/>
-        <v>284.10309667416641</v>
-      </c>
-      <c r="I104">
-        <f t="shared" si="18"/>
-        <v>30.967237537484138</v>
-      </c>
-      <c r="J104">
-        <f t="shared" si="19"/>
         <v>71.025774168541602</v>
       </c>
       <c r="K104">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.7418093843710345</v>
       </c>
     </row>
@@ -5402,43 +5440,43 @@
         <v>44003</v>
       </c>
       <c r="B105">
-        <f>B104*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="28"/>
         <v>1969.6681591394747</v>
       </c>
       <c r="C105">
+        <f t="shared" si="26"/>
+        <v>59.090044774184236</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="18"/>
+        <v>6.4408148803860819</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="27"/>
+        <v>14.772511193546059</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="19"/>
+        <v>1.6102037200965205</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="25"/>
+        <v>7001.1120251848151</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="20"/>
+        <v>280.04448100739262</v>
+      </c>
+      <c r="I105">
         <f t="shared" si="21"/>
-        <v>59.090044774184236</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="15"/>
-        <v>6.4408148803860819</v>
-      </c>
-      <c r="E105">
+        <v>30.524848429805797</v>
+      </c>
+      <c r="J105">
         <f t="shared" si="22"/>
-        <v>14.772511193546059</v>
-      </c>
-      <c r="F105">
-        <f t="shared" si="16"/>
-        <v>1.6102037200965205</v>
-      </c>
-      <c r="G105">
-        <f>G104*(1-($M$6/($P$3+$Q$3)))</f>
-        <v>7001.1120251848151</v>
-      </c>
-      <c r="H105">
-        <f t="shared" si="17"/>
-        <v>280.04448100739262</v>
-      </c>
-      <c r="I105">
-        <f t="shared" si="18"/>
-        <v>30.524848429805797</v>
-      </c>
-      <c r="J105">
-        <f t="shared" si="19"/>
         <v>70.011120251848155</v>
       </c>
       <c r="K105">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.6312121074514492</v>
       </c>
     </row>
@@ -5447,43 +5485,43 @@
         <v>44004</v>
       </c>
       <c r="B106">
-        <f>B105*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="28"/>
         <v>1882.1273520666093</v>
       </c>
       <c r="C106">
+        <f t="shared" si="26"/>
+        <v>56.463820561998276</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="18"/>
+        <v>6.154556441257812</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="27"/>
+        <v>14.115955140499569</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="19"/>
+        <v>1.538639110314453</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="25"/>
+        <v>6901.0961391107467</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="20"/>
+        <v>276.04384556442989</v>
+      </c>
+      <c r="I106">
         <f t="shared" si="21"/>
-        <v>56.463820561998276</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="15"/>
-        <v>6.154556441257812</v>
-      </c>
-      <c r="E106">
+        <v>30.088779166522858</v>
+      </c>
+      <c r="J106">
         <f t="shared" si="22"/>
-        <v>14.115955140499569</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="16"/>
-        <v>1.538639110314453</v>
-      </c>
-      <c r="G106">
-        <f>G105*(1-($M$6/($P$3+$Q$3)))</f>
-        <v>6901.0961391107467</v>
-      </c>
-      <c r="H106">
-        <f t="shared" si="17"/>
-        <v>276.04384556442989</v>
-      </c>
-      <c r="I106">
-        <f t="shared" si="18"/>
-        <v>30.088779166522858</v>
-      </c>
-      <c r="J106">
-        <f t="shared" si="19"/>
         <v>69.010961391107472</v>
       </c>
       <c r="K106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.5221947916307146</v>
       </c>
     </row>
@@ -5492,43 +5530,43 @@
         <v>44005</v>
       </c>
       <c r="B107">
-        <f>B106*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="28"/>
         <v>1798.4772475303157</v>
       </c>
       <c r="C107">
+        <f t="shared" si="26"/>
+        <v>53.954317425909473</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="18"/>
+        <v>5.8810205994241329</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="27"/>
+        <v>13.488579356477368</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="19"/>
+        <v>1.4702551498560332</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="25"/>
+        <v>6802.5090514091653</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="20"/>
+        <v>272.10036205636663</v>
+      </c>
+      <c r="I107">
         <f t="shared" si="21"/>
-        <v>53.954317425909473</v>
-      </c>
-      <c r="D107">
-        <f t="shared" si="15"/>
-        <v>5.8810205994241329</v>
-      </c>
-      <c r="E107">
+        <v>29.658939464143963</v>
+      </c>
+      <c r="J107">
         <f t="shared" si="22"/>
-        <v>13.488579356477368</v>
-      </c>
-      <c r="F107">
-        <f t="shared" si="16"/>
-        <v>1.4702551498560332</v>
-      </c>
-      <c r="G107">
-        <f>G106*(1-($M$6/($P$3+$Q$3)))</f>
-        <v>6802.5090514091653</v>
-      </c>
-      <c r="H107">
-        <f t="shared" si="17"/>
-        <v>272.10036205636663</v>
-      </c>
-      <c r="I107">
-        <f t="shared" si="18"/>
-        <v>29.658939464143963</v>
-      </c>
-      <c r="J107">
-        <f t="shared" si="19"/>
         <v>68.025090514091659</v>
       </c>
       <c r="K107">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.4147348660359906</v>
       </c>
     </row>
@@ -5537,43 +5575,43 @@
         <v>44006</v>
       </c>
       <c r="B108">
-        <f>B107*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="28"/>
         <v>1718.5449254178573</v>
       </c>
       <c r="C108">
+        <f t="shared" si="26"/>
+        <v>51.556347762535715</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="18"/>
+        <v>5.6196419061163931</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="27"/>
+        <v>12.889086940633929</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="19"/>
+        <v>1.4049104765290983</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="25"/>
+        <v>6705.3303506747488</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="20"/>
+        <v>268.21321402698993</v>
+      </c>
+      <c r="I108">
         <f t="shared" si="21"/>
-        <v>51.556347762535715</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="15"/>
-        <v>5.6196419061163931</v>
-      </c>
-      <c r="E108">
+        <v>29.235240328941902</v>
+      </c>
+      <c r="J108">
         <f t="shared" si="22"/>
-        <v>12.889086940633929</v>
-      </c>
-      <c r="F108">
-        <f t="shared" si="16"/>
-        <v>1.4049104765290983</v>
-      </c>
-      <c r="G108">
-        <f>G107*(1-($M$6/($P$3+$Q$3)))</f>
-        <v>6705.3303506747488</v>
-      </c>
-      <c r="H108">
-        <f t="shared" si="17"/>
-        <v>268.21321402698993</v>
-      </c>
-      <c r="I108">
-        <f t="shared" si="18"/>
-        <v>29.235240328941902</v>
-      </c>
-      <c r="J108">
-        <f t="shared" si="19"/>
         <v>67.053303506747483</v>
       </c>
       <c r="K108">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.3088100822354756</v>
       </c>
     </row>
@@ -5582,43 +5620,43 @@
         <v>44007</v>
       </c>
       <c r="B109">
-        <f>B108*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="28"/>
         <v>1642.1651509548415</v>
       </c>
       <c r="C109">
+        <f t="shared" si="26"/>
+        <v>49.264954528645241</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="18"/>
+        <v>5.3698800436223308</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="27"/>
+        <v>12.31623863216131</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="19"/>
+        <v>1.3424700109055827</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="25"/>
+        <v>6609.5399170936817</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="20"/>
+        <v>264.38159668374726</v>
+      </c>
+      <c r="I109">
         <f t="shared" si="21"/>
-        <v>49.264954528645241</v>
-      </c>
-      <c r="D109">
-        <f t="shared" si="15"/>
-        <v>5.3698800436223308</v>
-      </c>
-      <c r="E109">
+        <v>28.817594038528451</v>
+      </c>
+      <c r="J109">
         <f t="shared" si="22"/>
-        <v>12.31623863216131</v>
-      </c>
-      <c r="F109">
-        <f t="shared" si="16"/>
-        <v>1.3424700109055827</v>
-      </c>
-      <c r="G109">
-        <f>G108*(1-($M$6/($P$3+$Q$3)))</f>
-        <v>6609.5399170936817</v>
-      </c>
-      <c r="H109">
-        <f t="shared" si="17"/>
-        <v>264.38159668374726</v>
-      </c>
-      <c r="I109">
-        <f t="shared" si="18"/>
-        <v>28.817594038528451</v>
-      </c>
-      <c r="J109">
-        <f t="shared" si="19"/>
         <v>66.095399170936815</v>
       </c>
       <c r="K109">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.2043985096321128</v>
       </c>
     </row>
@@ -5627,43 +5665,43 @@
         <v>44008</v>
       </c>
       <c r="B110">
-        <f>B109*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="28"/>
         <v>1569.1800331346265</v>
       </c>
       <c r="C110">
+        <f t="shared" si="26"/>
+        <v>47.075400994038795</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="18"/>
+        <v>5.1312187083502288</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="27"/>
+        <v>11.768850248509699</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="19"/>
+        <v>1.2828046770875572</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="25"/>
+        <v>6515.1179182780579</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="20"/>
+        <v>260.60471673112232</v>
+      </c>
+      <c r="I110">
         <f t="shared" si="21"/>
-        <v>47.075400994038795</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="15"/>
-        <v>5.1312187083502288</v>
-      </c>
-      <c r="E110">
+        <v>28.405914123692334</v>
+      </c>
+      <c r="J110">
         <f t="shared" si="22"/>
-        <v>11.768850248509699</v>
-      </c>
-      <c r="F110">
-        <f t="shared" si="16"/>
-        <v>1.2828046770875572</v>
-      </c>
-      <c r="G110">
-        <f>G109*(1-($M$6/($P$3+$Q$3)))</f>
-        <v>6515.1179182780579</v>
-      </c>
-      <c r="H110">
-        <f t="shared" si="17"/>
-        <v>260.60471673112232</v>
-      </c>
-      <c r="I110">
-        <f t="shared" si="18"/>
-        <v>28.405914123692334</v>
-      </c>
-      <c r="J110">
-        <f t="shared" si="19"/>
         <v>65.151179182780581</v>
       </c>
       <c r="K110">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.1014785309230835</v>
       </c>
     </row>
@@ -5672,43 +5710,43 @@
         <v>44009</v>
       </c>
       <c r="B111">
-        <f>B110*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="28"/>
         <v>1499.4386983286431</v>
       </c>
       <c r="C111">
+        <f t="shared" si="26"/>
+        <v>44.98316094985929</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="18"/>
+        <v>4.9031645435346629</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="27"/>
+        <v>11.245790237464822</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="19"/>
+        <v>1.2257911358836657</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="25"/>
+        <v>6422.0448051598005</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="20"/>
+        <v>256.88179220639205</v>
+      </c>
+      <c r="I111">
         <f t="shared" si="21"/>
-        <v>44.98316094985929</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="15"/>
-        <v>4.9031645435346629</v>
-      </c>
-      <c r="E111">
+        <v>28.000115350496735</v>
+      </c>
+      <c r="J111">
         <f t="shared" si="22"/>
-        <v>11.245790237464822</v>
-      </c>
-      <c r="F111">
-        <f t="shared" si="16"/>
-        <v>1.2257911358836657</v>
-      </c>
-      <c r="G111">
-        <f>G110*(1-($M$6/($P$3+$Q$3)))</f>
-        <v>6422.0448051598005</v>
-      </c>
-      <c r="H111">
-        <f t="shared" si="17"/>
-        <v>256.88179220639205</v>
-      </c>
-      <c r="I111">
-        <f t="shared" si="18"/>
-        <v>28.000115350496735</v>
-      </c>
-      <c r="J111">
-        <f t="shared" si="19"/>
         <v>64.220448051598012</v>
       </c>
       <c r="K111">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.0000288376241837</v>
       </c>
     </row>
@@ -5717,43 +5755,43 @@
         <v>44010</v>
       </c>
       <c r="B112">
-        <f>B111*(1-($M$5/($P$2+$Q$2)))</f>
+        <f t="shared" si="28"/>
         <v>1432.7969784029258</v>
       </c>
       <c r="C112">
+        <f t="shared" si="26"/>
+        <v>42.983909352087771</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="18"/>
+        <v>4.6852461193775667</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="27"/>
+        <v>10.745977338021943</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="19"/>
+        <v>1.1713115298443917</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="25"/>
+        <v>6330.3013079432321</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="20"/>
+        <v>253.2120523177293</v>
+      </c>
+      <c r="I112">
         <f t="shared" si="21"/>
-        <v>42.983909352087771</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="15"/>
-        <v>4.6852461193775667</v>
-      </c>
-      <c r="E112">
+        <v>27.600113702632495</v>
+      </c>
+      <c r="J112">
         <f t="shared" si="22"/>
-        <v>10.745977338021943</v>
-      </c>
-      <c r="F112">
-        <f t="shared" si="16"/>
-        <v>1.1713115298443917</v>
-      </c>
-      <c r="G112">
-        <f>G111*(1-($M$6/($P$3+$Q$3)))</f>
-        <v>6330.3013079432321</v>
-      </c>
-      <c r="H112">
-        <f t="shared" si="17"/>
-        <v>253.2120523177293</v>
-      </c>
-      <c r="I112">
-        <f t="shared" si="18"/>
-        <v>27.600113702632495</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="19"/>
         <v>63.303013079432326</v>
       </c>
       <c r="K112">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>6.9000284256581237</v>
       </c>
     </row>
@@ -7909,4 +7947,137 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87F4C59-9414-4C62-A1F1-B67E012C32C6}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="11" max="11" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44301</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5238000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="3">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44286</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>5238000</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="5">
+        <v>8</v>
+      </c>
+      <c r="K3" s="5">
+        <v>766</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>